--- a/doc/order returns/bergen-wms/Open Return Request.xlsx
+++ b/doc/order returns/bergen-wms/Open Return Request.xlsx
@@ -938,6 +938,13 @@
     <dgm:pt modelId="{E1029EBF-562E-4BC9-98A1-D7ECFF414F07}" type="sibTrans" cxnId="{F31E4EBE-117A-477D-8788-043E8922CDE3}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1E99BE96-3A99-422E-ADDD-2F20CF5AACB6}">
       <dgm:prSet/>
@@ -974,6 +981,13 @@
     <dgm:pt modelId="{75875A0A-3192-4639-9587-409920482D59}" type="sibTrans" cxnId="{D0F1C040-F24E-4FB2-A046-E79345E79C87}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}">
       <dgm:prSet/>
@@ -1007,6 +1021,13 @@
     <dgm:pt modelId="{95D93097-E2EB-4E7D-B1F9-E39BCE63B053}" type="sibTrans" cxnId="{C2202195-E345-4C88-879D-275FAD390F38}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}">
       <dgm:prSet/>
@@ -1036,111 +1057,19 @@
     <dgm:pt modelId="{788A933F-EAA8-41E1-B1FE-DED9948F0676}" type="sibTrans" cxnId="{065B6FA8-4D92-40A5-B3D0-F5CC203F65DB}">
       <dgm:prSet/>
       <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}">
-      <dgm:prSet/>
-      <dgm:spPr>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Reviewed by Customer Service</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{457AD91D-2021-4B58-821A-44D62CEBE284}" type="parTrans" cxnId="{20ABC9F6-13EA-4660-8061-5F2ABE7784E3}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{E2B7CB0D-439F-458C-9004-B03041EDCA66}" type="sibTrans" cxnId="{20ABC9F6-13EA-4660-8061-5F2ABE7784E3}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E19740CE-863C-46E0-81FB-29573464BD8E}">
-      <dgm:prSet/>
-      <dgm:spPr>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Rejected</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{15C8A67B-5AB7-4DB7-9FAD-ECEEDBA7FF55}" type="parTrans" cxnId="{F983D24F-E846-4D45-9E31-57AF3B91A9C7}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{34D81FEB-CC5E-48B7-99A9-BF6E3C5E7264}" type="sibTrans" cxnId="{F983D24F-E846-4D45-9E31-57AF3B91A9C7}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{205659EA-F91B-4619-9414-2599E62E2BA5}">
-      <dgm:prSet/>
-      <dgm:spPr>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Approved</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{51ED6000-DCD7-4D12-B82C-AAD872229133}" type="parTrans" cxnId="{76ED33F0-9ABA-42E5-B74D-4467390FCF68}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9B57A6B6-A8EF-47F9-8781-04780CCD25A1}" type="sibTrans" cxnId="{76ED33F0-9ABA-42E5-B74D-4467390FCF68}">
-      <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}">
       <dgm:prSet/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -1168,12 +1097,19 @@
     <dgm:pt modelId="{1CA63328-E7DE-4F8C-96BC-AEA13426C7DC}" type="sibTrans" cxnId="{FC6E6967-BC93-44F2-9A8C-754D500B5B10}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{45AB81D0-4942-49FD-9320-063964A3A55A}">
       <dgm:prSet/>
       <dgm:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
       </dgm:spPr>
       <dgm:t>
@@ -1201,6 +1137,13 @@
     <dgm:pt modelId="{43297B59-FE43-4F23-A9FB-2D86885C8237}" type="sibTrans" cxnId="{242BFFFA-00A3-4B61-ACB3-A54C310C7AC8}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}">
       <dgm:prSet/>
@@ -1230,6 +1173,13 @@
     <dgm:pt modelId="{792A4FB0-EE9F-4110-B239-04E1CFE15824}" type="sibTrans" cxnId="{2BA0E5FD-2C34-4F43-9CCD-9780EB2EF721}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}">
       <dgm:prSet/>
@@ -1263,6 +1213,13 @@
     <dgm:pt modelId="{6985891D-40A6-4F46-BCEC-7FDC5EF7E9EC}" type="sibTrans" cxnId="{EF224AFF-ACF0-4C3D-8192-A50612484F9D}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{53CD3394-856B-4A54-B0F4-01E272E47A39}">
       <dgm:prSet/>
@@ -1298,6 +1255,13 @@
     <dgm:pt modelId="{308BACC6-5664-4B49-8F28-A84DA8DC4927}" type="sibTrans" cxnId="{71873264-D89F-4F9A-8966-F7F813DA6475}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}">
       <dgm:prSet/>
@@ -1333,6 +1297,13 @@
     <dgm:pt modelId="{5D2C27B9-DA57-4516-8224-F9BF5622C08E}" type="sibTrans" cxnId="{0316F556-BF11-4C23-80D0-6F98176B7B3B}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}">
       <dgm:prSet/>
@@ -1368,6 +1339,13 @@
     <dgm:pt modelId="{46292B57-E636-4E46-BFC9-A2BAC884DF1B}" type="sibTrans" cxnId="{0AAE102A-6B85-4DB4-86E0-692BEB6E5093}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C0CAAB84-DA97-438A-AA59-326891191159}">
       <dgm:prSet/>
@@ -1397,6 +1375,13 @@
     <dgm:pt modelId="{8E932EF0-90F3-4084-AD5D-732A9CEF3DA9}" type="sibTrans" cxnId="{04004558-D73F-4393-9D14-8C574897A930}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}">
       <dgm:prSet/>
@@ -1426,6 +1411,13 @@
     <dgm:pt modelId="{E8379CE3-0CD7-4507-BC75-92F7FC92251C}" type="sibTrans" cxnId="{406AF062-D5D4-442F-8FC6-5129A5404B09}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}">
       <dgm:prSet/>
@@ -1455,6 +1447,13 @@
     <dgm:pt modelId="{330F6EB8-2C9C-4A25-AF5B-484711842526}" type="sibTrans" cxnId="{1D9D5A0C-1722-47BC-AB1F-0B91F5509288}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}">
       <dgm:prSet/>
@@ -1488,6 +1487,13 @@
     <dgm:pt modelId="{474AA97E-5010-452A-B18F-7AD6881CDF77}" type="sibTrans" cxnId="{3F501E26-2161-499E-8621-701F9DBAB916}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}">
       <dgm:prSet/>
@@ -1523,6 +1529,13 @@
     <dgm:pt modelId="{DE0A3B6F-3BC5-41FE-8D97-AEF4D88C871D}" type="sibTrans" cxnId="{B0F69F58-02E5-4F5A-9974-D4256291E813}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}">
       <dgm:prSet/>
@@ -1552,6 +1565,13 @@
     <dgm:pt modelId="{D22DC8F7-1649-4EBE-AE9A-2C82FD63F71D}" type="sibTrans" cxnId="{788706E3-9E11-46DC-A7EB-ED36A349EBB1}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FC0E27DB-D0E7-495F-9041-593C61C4C734}">
       <dgm:prSet/>
@@ -1581,6 +1601,13 @@
     <dgm:pt modelId="{6CE669EA-AF7E-43B1-8E46-871D570947D5}" type="sibTrans" cxnId="{BF3F0199-EBEB-43D7-A0DA-6E6479868103}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{231AB027-9786-4CF5-B3F5-D00125516F53}">
       <dgm:prSet/>
@@ -1605,6 +1632,13 @@
     <dgm:pt modelId="{E196CDB7-2FCF-4F07-9F63-D0F598FD1DD1}" type="sibTrans" cxnId="{6C6E8C81-4100-4D70-8BAB-78261422264D}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CD3E5EC0-0731-431E-8757-06CF707694F1}" type="parTrans" cxnId="{6C6E8C81-4100-4D70-8BAB-78261422264D}">
       <dgm:prSet/>
@@ -1649,6 +1683,13 @@
     <dgm:pt modelId="{50EEA0BE-67BA-456D-8F68-33C1E1F67B9F}" type="sibTrans" cxnId="{26116C5E-A490-4D8A-AAFB-8F57FD25E89C}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}">
       <dgm:prSet/>
@@ -1678,6 +1719,13 @@
     <dgm:pt modelId="{D5638E7F-0009-4153-ADF0-24C91F0C9CB6}" type="sibTrans" cxnId="{6036ED9F-827F-4D54-90B8-B30CE865958F}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}">
       <dgm:prSet/>
@@ -1707,6 +1755,13 @@
     <dgm:pt modelId="{0BEE42E8-5B85-4C62-BD07-E14C90456320}" type="sibTrans" cxnId="{7EE43C49-4E12-4D17-A8DC-FADFF39407D2}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" type="asst">
       <dgm:prSet/>
@@ -1740,6 +1795,13 @@
     <dgm:pt modelId="{4B89A52A-562F-43A6-90CF-DB1705BA97DE}" type="sibTrans" cxnId="{2B3AAFBB-CE01-4015-8E27-05ADF4F5C8FE}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F6230248-9A22-4714-A606-FF4E27A8853D}" type="asst">
       <dgm:prSet/>
@@ -1773,138 +1835,13 @@
     <dgm:pt modelId="{8D732FE9-B29F-48AE-B358-0FC8BF23BB31}" type="sibTrans" cxnId="{B3695BAD-BB98-4E69-B50A-C0BB85A671CA}">
       <dgm:prSet/>
       <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" type="asst">
-      <dgm:prSet/>
-      <dgm:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Enhancement - System auto approve on reason code</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{9520FC2D-6CD5-4388-BE91-AA6F78B05136}" type="parTrans" cxnId="{7F134746-7F40-451E-AE7E-D21F141FAB0E}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{74BDEEC1-51B0-4E29-B65B-D0A88878C5B1}" type="sibTrans" cxnId="{7F134746-7F40-451E-AE7E-D21F141FAB0E}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{091740D7-C235-4DA6-9F6F-E6070C38189A}" type="asst">
-      <dgm:prSet/>
-      <dgm:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Enhancement - Auto created after prev. enhancement</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{3D7C57FA-8791-4FCE-8829-A303F4492878}" type="parTrans" cxnId="{0DFBA10E-9E45-45BD-883A-DF3BAD1C3CF7}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{ACBA3CC4-645A-49D2-B1C3-D5D1CACD0A2F}" type="sibTrans" cxnId="{0DFBA10E-9E45-45BD-883A-DF3BAD1C3CF7}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}">
-      <dgm:prSet/>
-      <dgm:spPr>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Customer Service contact customer</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{E569CAC8-ACB9-427A-8DAE-22E34880BC5E}" type="parTrans" cxnId="{83542096-EC30-43E0-BE98-79CF0C142CE2}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{29E689E7-E13F-4647-A761-F6DC50E025ED}" type="sibTrans" cxnId="{83542096-EC30-43E0-BE98-79CF0C142CE2}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" type="asst">
-      <dgm:prSet/>
-      <dgm:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>Enhancement - Auto email sent to customer advising to contact CS</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{F5360B58-A336-4E36-B5CF-089FF0AF7013}" type="parTrans" cxnId="{43A53415-B280-4E96-A8CF-909938714695}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{45C6095E-3298-4CB3-B19A-0E6E8B5ACC2D}" type="sibTrans" cxnId="{43A53415-B280-4E96-A8CF-909938714695}">
-      <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3CB7A34E-1FE6-4768-83C2-EE9E6DB20C7C}" type="asst">
       <dgm:prSet/>
@@ -1938,6 +1875,13 @@
     <dgm:pt modelId="{A9FC691A-E977-4839-B143-02100B43C975}" type="sibTrans" cxnId="{883F26A5-1684-44C9-9FDB-BE47E1918CC1}">
       <dgm:prSet/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{18D22F45-37B1-4CDA-B584-95E95D3BAEA6}" type="pres">
       <dgm:prSet presAssocID="{5AD00427-FE0C-46CF-8572-5D02020267B8}" presName="hierChild1" presStyleCnt="0">
@@ -2108,7 +2052,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5E4811F8-319E-49AA-822D-42E50E9427F1}" type="pres">
-      <dgm:prSet presAssocID="{AF98AC07-83EA-4682-BD69-A7C5011F59F5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{AF98AC07-83EA-4682-BD69-A7C5011F59F5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2131,7 +2075,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6E172DDF-88B6-43F7-8206-C673A88C2D06}" type="pres">
-      <dgm:prSet presAssocID="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="22" custLinFactY="-21721" custLinFactNeighborX="-23028" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="18" custLinFactY="-21721" custLinFactNeighborX="-23028" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2146,7 +2090,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CC3318FF-CB9E-4673-810C-95009695D84C}" type="pres">
-      <dgm:prSet presAssocID="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2160,285 +2104,8 @@
       <dgm:prSet presAssocID="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{1EADF556-E115-4146-8827-100B4A4D9461}" type="pres">
-      <dgm:prSet presAssocID="{457AD91D-2021-4B58-821A-44D62CEBE284}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="29"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{5D26EBE7-8C18-4767-AB48-EA7294E3C955}" type="pres">
-      <dgm:prSet presAssocID="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{47CEB7A3-D31B-455E-BD5F-D566899E1A0C}" type="pres">
-      <dgm:prSet presAssocID="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{61D04746-DD26-4AC2-9045-FD7B63B70FA6}" type="pres">
-      <dgm:prSet presAssocID="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="22" custLinFactY="-28300" custLinFactNeighborX="-27140" custLinFactNeighborY="-100000">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{D582A622-F082-4FFA-90A4-10FCC5EBBA1F}" type="pres">
-      <dgm:prSet presAssocID="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="22"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{32A6EC2F-E3E5-4156-B61A-AB209CF4A779}" type="pres">
-      <dgm:prSet presAssocID="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B28C6FC9-0E36-4800-848D-558D3659DF83}" type="pres">
-      <dgm:prSet presAssocID="{15C8A67B-5AB7-4DB7-9FAD-ECEEDBA7FF55}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="29"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{04BAF2B3-EA34-4CFA-BC96-33F0892F8B30}" type="pres">
-      <dgm:prSet presAssocID="{E19740CE-863C-46E0-81FB-29573464BD8E}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{55017A46-1702-401F-B6F7-29F386BC00B9}" type="pres">
-      <dgm:prSet presAssocID="{E19740CE-863C-46E0-81FB-29573464BD8E}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{382D6AB1-9752-497F-A581-EC9FCE971620}" type="pres">
-      <dgm:prSet presAssocID="{E19740CE-863C-46E0-81FB-29573464BD8E}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="22" custLinFactY="-41470" custLinFactNeighborY="-100000">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{BFDBAFCF-10EB-4F26-91BC-8798F7E93322}" type="pres">
-      <dgm:prSet presAssocID="{E19740CE-863C-46E0-81FB-29573464BD8E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="22"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{919737D8-B049-425B-BC87-8182297669A0}" type="pres">
-      <dgm:prSet presAssocID="{E19740CE-863C-46E0-81FB-29573464BD8E}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{F374DD8C-BD39-411D-8884-7D5D000B5412}" type="pres">
-      <dgm:prSet presAssocID="{E569CAC8-ACB9-427A-8DAE-22E34880BC5E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="29"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{3C000F9C-86BB-4FC4-9602-1F3E1CA5CEA0}" type="pres">
-      <dgm:prSet presAssocID="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{61FCDD69-8D82-424D-A1BC-FB0188E5B4F0}" type="pres">
-      <dgm:prSet presAssocID="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{89C6EE15-7404-4350-A4E2-E01D99D25F07}" type="pres">
-      <dgm:prSet presAssocID="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="22" custLinFactY="-41470" custLinFactNeighborY="-100000">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{C284C33E-B694-4F6E-BC44-5ECB5EB9AB60}" type="pres">
-      <dgm:prSet presAssocID="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="22"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{66587BC4-7028-4839-B234-489BD50247E8}" type="pres">
-      <dgm:prSet presAssocID="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C23D43BB-67C9-4E97-8E71-FA923546B0B6}" type="pres">
-      <dgm:prSet presAssocID="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{8F2BAA84-1091-4A24-AD29-B4B8AAD7C52A}" type="pres">
-      <dgm:prSet presAssocID="{F5360B58-A336-4E36-B5CF-089FF0AF7013}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="29"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{BAAA8FF5-4A98-41FF-82F1-0006611CF7BA}" type="pres">
-      <dgm:prSet presAssocID="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" presName="hierRoot3" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B8ED3997-FCCC-4BD1-A461-EA1B5EE38B86}" type="pres">
-      <dgm:prSet presAssocID="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" presName="rootComposite3" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{F0559929-F662-46DA-BF2D-295B2BE10601}" type="pres">
-      <dgm:prSet presAssocID="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" presName="rootText3" presStyleLbl="asst4" presStyleIdx="0" presStyleCnt="6" custLinFactY="-64487" custLinFactNeighborX="-67440" custLinFactNeighborY="-100000">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{46BD2673-67D5-446C-9A9D-4E33FB311094}" type="pres">
-      <dgm:prSet presAssocID="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" presName="rootConnector3" presStyleLbl="asst4" presStyleIdx="0" presStyleCnt="6"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{D14A63D2-7EA6-42C9-8DF5-1496EB0D73B8}" type="pres">
-      <dgm:prSet presAssocID="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" presName="hierChild6" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{73447775-200A-4CD7-995E-8BBEF00B3D45}" type="pres">
-      <dgm:prSet presAssocID="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" presName="hierChild7" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{0DA61C04-D6C2-4D1E-A410-8E39C1EB90FB}" type="pres">
-      <dgm:prSet presAssocID="{E19740CE-863C-46E0-81FB-29573464BD8E}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{035D330F-8E26-4555-B18E-3EA31829BD15}" type="pres">
-      <dgm:prSet presAssocID="{51ED6000-DCD7-4D12-B82C-AAD872229133}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="29"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{28E31BB8-3141-4EB7-B2EE-C1A44DAFD2AA}" type="pres">
-      <dgm:prSet presAssocID="{205659EA-F91B-4619-9414-2599E62E2BA5}" presName="hierRoot2" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1CC2EDA0-DA58-4426-A67A-D1A5F116C42A}" type="pres">
-      <dgm:prSet presAssocID="{205659EA-F91B-4619-9414-2599E62E2BA5}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{2555DBA0-9B5C-49EE-817E-B609FE182F55}" type="pres">
-      <dgm:prSet presAssocID="{205659EA-F91B-4619-9414-2599E62E2BA5}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="22" custLinFactY="-41470" custLinFactNeighborY="-100000">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{83615EF6-7F8E-4C5A-B680-A4B87BCDC8AE}" type="pres">
-      <dgm:prSet presAssocID="{205659EA-F91B-4619-9414-2599E62E2BA5}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="22"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{C0FFA1E2-03A0-44D3-8CC3-F8FEB9121353}" type="pres">
-      <dgm:prSet presAssocID="{205659EA-F91B-4619-9414-2599E62E2BA5}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
     <dgm:pt modelId="{1713D8DE-AF42-4A62-9BFB-FA22A93B4B22}" type="pres">
-      <dgm:prSet presAssocID="{179709A3-AD52-4157-BEA8-42333A15942D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{179709A3-AD52-4157-BEA8-42333A15942D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2461,7 +2128,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EC47C248-2C2E-4C81-881E-A4378E48247D}" type="pres">
-      <dgm:prSet presAssocID="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="22" custLinFactY="-41470" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="18" custLinFactY="-41470" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2476,7 +2143,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{83824BC3-69C6-471D-8653-29FFCA69FAD5}" type="pres">
-      <dgm:prSet presAssocID="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2491,7 +2158,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A7021507-15C2-4974-82F8-E8F19B8A460B}" type="pres">
-      <dgm:prSet presAssocID="{3D387E21-D664-40EC-B2E5-C7BE39BA0204}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{3D387E21-D664-40EC-B2E5-C7BE39BA0204}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2514,7 +2181,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D4197FE3-7C68-4EA0-A381-9045A01904C0}" type="pres">
-      <dgm:prSet presAssocID="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="22" custLinFactY="-34890" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="18" custLinFactY="-34890" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2529,7 +2196,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{09AE2075-226C-4D6D-AB4A-51AA4E24709D}" type="pres">
-      <dgm:prSet presAssocID="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2548,7 +2215,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FBC79CCD-8433-44C4-BDA4-24CA8CE015F5}" type="pres">
-      <dgm:prSet presAssocID="{73E4700B-1EA4-44CD-9022-D2AA0606EF61}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{73E4700B-1EA4-44CD-9022-D2AA0606EF61}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2571,7 +2238,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5707B9E7-4EC4-48F3-B5B7-C0F4AD71878C}" type="pres">
-      <dgm:prSet presAssocID="{45AB81D0-4942-49FD-9320-063964A3A55A}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="22" custLinFactY="-34890" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{45AB81D0-4942-49FD-9320-063964A3A55A}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="18" custLinFactY="-34890" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2586,7 +2253,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{39F5929B-9743-4646-85A6-63799662CF4B}" type="pres">
-      <dgm:prSet presAssocID="{45AB81D0-4942-49FD-9320-063964A3A55A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{45AB81D0-4942-49FD-9320-063964A3A55A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2601,7 +2268,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{31029E5D-38F0-4445-AD80-D53D3829D0D7}" type="pres">
-      <dgm:prSet presAssocID="{F915F4CA-CB41-435B-A83A-D89F156B44D0}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{F915F4CA-CB41-435B-A83A-D89F156B44D0}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2624,7 +2291,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C5AC313F-9E85-4FED-9162-78CA68DCB05A}" type="pres">
-      <dgm:prSet presAssocID="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2639,7 +2306,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{360F100E-2821-4F68-BF6E-F50D9696266B}" type="pres">
-      <dgm:prSet presAssocID="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2654,7 +2321,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1ABD0C0D-2167-4E5E-9426-B401594EE7B5}" type="pres">
-      <dgm:prSet presAssocID="{74CBAFDB-F954-4B13-A2A1-E376B251D37F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{74CBAFDB-F954-4B13-A2A1-E376B251D37F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2677,7 +2344,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{092D19DD-7BA6-4B64-9E4E-B1D540429B26}" type="pres">
-      <dgm:prSet presAssocID="{53CD3394-856B-4A54-B0F4-01E272E47A39}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{53CD3394-856B-4A54-B0F4-01E272E47A39}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2692,7 +2359,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B394C574-A5E7-4981-B328-6335554E598B}" type="pres">
-      <dgm:prSet presAssocID="{53CD3394-856B-4A54-B0F4-01E272E47A39}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{53CD3394-856B-4A54-B0F4-01E272E47A39}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2707,7 +2374,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B440F889-F3DB-4D8A-8934-5680DA0624D2}" type="pres">
-      <dgm:prSet presAssocID="{9E2E6255-E15A-47D5-ABB9-E299E9AFCFBE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{9E2E6255-E15A-47D5-ABB9-E299E9AFCFBE}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2730,7 +2397,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{02C6B524-D8FC-495D-B3F3-DD87F2B607B1}" type="pres">
-      <dgm:prSet presAssocID="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" presName="rootText" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2745,7 +2412,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{844F720F-8888-41D5-9C8A-8E8313B26C01}" type="pres">
-      <dgm:prSet presAssocID="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2760,7 +2427,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F1C115F3-7689-4248-8F15-5ADB4A5E41E4}" type="pres">
-      <dgm:prSet presAssocID="{13E88B0D-94B7-44F5-86FF-C7DC7C96907D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{13E88B0D-94B7-44F5-86FF-C7DC7C96907D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2783,7 +2450,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{603B877B-343F-4384-B81E-A743DDE75595}" type="pres">
-      <dgm:prSet presAssocID="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" presName="rootText" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2798,7 +2465,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A0924645-04A3-40BB-8B76-40C1983BEFBD}" type="pres">
-      <dgm:prSet presAssocID="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2813,7 +2480,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B2B65F4D-9EE8-4AF4-AAA0-11BF84EAB3E7}" type="pres">
-      <dgm:prSet presAssocID="{261E041B-3BA4-448C-8C1D-3DC6EF9DEC44}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{261E041B-3BA4-448C-8C1D-3DC6EF9DEC44}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2836,7 +2503,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CA6C17FE-417B-4355-BBDC-45A7403EE4A4}" type="pres">
-      <dgm:prSet presAssocID="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" presName="rootText" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="22" custLinFactNeighborY="-74025">
+      <dgm:prSet presAssocID="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="18" custLinFactNeighborY="-74025">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2851,7 +2518,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1D3F302F-C8DC-4950-9F70-A879CFA08C76}" type="pres">
-      <dgm:prSet presAssocID="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2874,7 +2541,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8D4D2CA9-ECD4-493D-BDF7-E85363F5DD67}" type="pres">
-      <dgm:prSet presAssocID="{D293981D-C319-45AD-A9A4-8FFA3D71CE84}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{D293981D-C319-45AD-A9A4-8FFA3D71CE84}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2897,7 +2564,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D9AD0D1A-E917-4FEC-84F3-7545C3E11398}" type="pres">
-      <dgm:prSet presAssocID="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" presName="rootText" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2912,7 +2579,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7430C116-4000-412F-B70D-C86841DE3E5D}" type="pres">
-      <dgm:prSet presAssocID="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2931,7 +2598,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{481093D2-35B1-4F63-B4DA-9EFD4CF11BA2}" type="pres">
-      <dgm:prSet presAssocID="{27B2DCF1-CB4A-4E28-A830-AA7E2DBB34F5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{27B2DCF1-CB4A-4E28-A830-AA7E2DBB34F5}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2954,7 +2621,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8696FB2F-B74C-4284-93FD-CADDEAD018DA}" type="pres">
-      <dgm:prSet presAssocID="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" presName="rootText" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" presName="rootText" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2969,7 +2636,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{927DFF84-910C-4F85-B42F-F563743B5E13}" type="pres">
-      <dgm:prSet presAssocID="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2988,7 +2655,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B43B54FF-4968-4B80-9518-77BDFE55A029}" type="pres">
-      <dgm:prSet presAssocID="{4538390B-EDBC-415D-ADA9-428328B41C55}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{4538390B-EDBC-415D-ADA9-428328B41C55}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3011,7 +2678,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6700433B-7E45-4267-AA10-ABA43A4ED20C}" type="pres">
-      <dgm:prSet presAssocID="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" presName="rootText" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" presName="rootText" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3026,7 +2693,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{72B9246D-E7DE-4437-9795-7238B2DAEBCB}" type="pres">
-      <dgm:prSet presAssocID="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3049,7 +2716,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{46DAEBF6-0A5C-43AE-B9F7-DE231E995B1E}" type="pres">
-      <dgm:prSet presAssocID="{C8A5F967-33A1-43F2-A587-C685472EC28A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{C8A5F967-33A1-43F2-A587-C685472EC28A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3072,7 +2739,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DA8F9D03-B5B3-49F9-AEEF-C2E546A8C7A4}" type="pres">
-      <dgm:prSet presAssocID="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" presName="rootText" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" presName="rootText" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3087,7 +2754,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AE453DB4-B928-468B-8601-9371E2BBBBA0}" type="pres">
-      <dgm:prSet presAssocID="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3102,7 +2769,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{40D07927-79AC-4C9F-AC74-95D7DC0AFB16}" type="pres">
-      <dgm:prSet presAssocID="{3B605381-41D1-45DE-B099-DCF2360AC723}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{3B605381-41D1-45DE-B099-DCF2360AC723}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3125,7 +2792,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FC48BD82-19EB-4536-A8E5-9192F66DE36A}" type="pres">
-      <dgm:prSet presAssocID="{C0CAAB84-DA97-438A-AA59-326891191159}" presName="rootText" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{C0CAAB84-DA97-438A-AA59-326891191159}" presName="rootText" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3140,7 +2807,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{704E46B6-9C5B-4BF0-8B2F-AA956B2F6717}" type="pres">
-      <dgm:prSet presAssocID="{C0CAAB84-DA97-438A-AA59-326891191159}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{C0CAAB84-DA97-438A-AA59-326891191159}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3159,7 +2826,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8BD74B98-4F93-477B-869F-D8A12B7BAF2F}" type="pres">
-      <dgm:prSet presAssocID="{9799EC60-D3F1-4C1D-8896-54318B7167F1}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{9799EC60-D3F1-4C1D-8896-54318B7167F1}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3182,7 +2849,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A1A4778F-0BBA-4C0E-AFCB-D1779CC6ABB6}" type="pres">
-      <dgm:prSet presAssocID="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" presName="rootText" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" presName="rootText" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3197,7 +2864,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{15749489-7B40-4C23-BBA3-2B8DB0F18E81}" type="pres">
-      <dgm:prSet presAssocID="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3212,7 +2879,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C37D4FBA-EF1F-44B0-855C-3B564A6A48FD}" type="pres">
-      <dgm:prSet presAssocID="{93FF5A89-F786-4F80-85AE-6C204538665B}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{93FF5A89-F786-4F80-85AE-6C204538665B}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3235,7 +2902,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0203E005-081B-4C10-ACD8-1AC7794EC88E}" type="pres">
-      <dgm:prSet presAssocID="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" presName="rootText" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="22" custLinFactNeighborY="-78960">
+      <dgm:prSet presAssocID="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" presName="rootText" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="18" custLinFactNeighborY="-78960">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3250,7 +2917,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3D452E87-2559-443E-9433-3995CBCA8C28}" type="pres">
-      <dgm:prSet presAssocID="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3265,7 +2932,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{26F22A2A-8CC6-4F36-8B51-83033FA5AEF5}" type="pres">
-      <dgm:prSet presAssocID="{CD3E5EC0-0731-431E-8757-06CF707694F1}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{CD3E5EC0-0731-431E-8757-06CF707694F1}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3288,7 +2955,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D83CE99C-0515-4014-92FC-9219C146CCA8}" type="pres">
-      <dgm:prSet presAssocID="{231AB027-9786-4CF5-B3F5-D00125516F53}" presName="rootText" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="22" custLinFactY="-31590" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{231AB027-9786-4CF5-B3F5-D00125516F53}" presName="rootText" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="18" custLinFactY="-31590" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3303,7 +2970,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CDC76A16-1ABA-4232-988B-3F4D3C15F155}" type="pres">
-      <dgm:prSet presAssocID="{231AB027-9786-4CF5-B3F5-D00125516F53}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{231AB027-9786-4CF5-B3F5-D00125516F53}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3322,7 +2989,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2B74CA2E-4E95-4685-8B83-497A8BB8C157}" type="pres">
-      <dgm:prSet presAssocID="{4BE8AF11-A06B-455E-84E7-C472C71C32E7}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="22" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{4BE8AF11-A06B-455E-84E7-C472C71C32E7}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3345,7 +3012,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DFD166F7-29ED-4BF3-B6EA-EF547E469607}" type="pres">
-      <dgm:prSet presAssocID="{F6230248-9A22-4714-A606-FF4E27A8853D}" presName="rootText3" presStyleLbl="asst4" presStyleIdx="1" presStyleCnt="6" custLinFactX="62020" custLinFactY="-54618" custLinFactNeighborX="100000" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{F6230248-9A22-4714-A606-FF4E27A8853D}" presName="rootText3" presStyleLbl="asst4" presStyleIdx="0" presStyleCnt="3" custLinFactX="62020" custLinFactY="-54618" custLinFactNeighborX="100000" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3360,7 +3027,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4DD5575A-A70E-4351-A842-5DFC53B4D3F2}" type="pres">
-      <dgm:prSet presAssocID="{F6230248-9A22-4714-A606-FF4E27A8853D}" presName="rootConnector3" presStyleLbl="asst4" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:prSet presAssocID="{F6230248-9A22-4714-A606-FF4E27A8853D}" presName="rootConnector3" presStyleLbl="asst4" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3383,7 +3050,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A58F2B6C-7117-4331-AC97-CC25D7002555}" type="pres">
-      <dgm:prSet presAssocID="{85D8D6BF-FF79-4DDD-98C8-3C9CA4291EB5}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="23" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{85D8D6BF-FF79-4DDD-98C8-3C9CA4291EB5}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3406,7 +3073,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6B61E405-3DC9-4012-9930-EAC68FD4D653}" type="pres">
-      <dgm:prSet presAssocID="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" presName="rootText3" presStyleLbl="asst4" presStyleIdx="2" presStyleCnt="6" custLinFactY="-1982" custLinFactNeighborX="-41944" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" presName="rootText3" presStyleLbl="asst4" presStyleIdx="1" presStyleCnt="3" custLinFactY="-1982" custLinFactNeighborX="-41944" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3421,7 +3088,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{04E06FC5-75F9-41F5-B96D-A2BA541EFC55}" type="pres">
-      <dgm:prSet presAssocID="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" presName="rootConnector3" presStyleLbl="asst4" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:prSet presAssocID="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" presName="rootConnector3" presStyleLbl="asst4" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3444,7 +3111,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{442ECB07-1145-4ABB-98B9-5777DA12DB5B}" type="pres">
-      <dgm:prSet presAssocID="{98C958A0-04A1-4F6F-A137-E7AFF5332D2E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="24" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{98C958A0-04A1-4F6F-A137-E7AFF5332D2E}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3467,7 +3134,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1DF86D04-7972-4C82-85DE-84683C027A28}" type="pres">
-      <dgm:prSet presAssocID="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" presName="rootText" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="22" custLinFactY="-18440" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" presName="rootText" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="18" custLinFactY="-18440" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3482,7 +3149,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CC216CED-9E3B-4875-8F0B-1A7DDFD6106B}" type="pres">
-      <dgm:prSet presAssocID="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="22"/>
+      <dgm:prSet presAssocID="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="18"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3517,7 +3184,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8F3D0191-C403-4316-9539-AA954BE1280A}" type="pres">
-      <dgm:prSet presAssocID="{86161FF0-DB75-44B4-B481-37086A5C7D94}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="25" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{86161FF0-DB75-44B4-B481-37086A5C7D94}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3540,7 +3207,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{55D45C88-E238-4890-BC8D-B335EBEAE613}" type="pres">
-      <dgm:prSet presAssocID="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" presName="rootText3" presStyleLbl="asst4" presStyleIdx="3" presStyleCnt="6" custLinFactX="32412" custLinFactY="-44749" custLinFactNeighborX="100000" custLinFactNeighborY="-100000">
+      <dgm:prSet presAssocID="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" presName="rootText3" presStyleLbl="asst4" presStyleIdx="2" presStyleCnt="3" custLinFactX="32412" custLinFactY="-44749" custLinFactNeighborX="100000" custLinFactNeighborY="-100000">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3555,7 +3222,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{712B008C-84F8-47B6-9EA2-F32FF626FE45}" type="pres">
-      <dgm:prSet presAssocID="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" presName="rootConnector3" presStyleLbl="asst4" presStyleIdx="3" presStyleCnt="6"/>
+      <dgm:prSet presAssocID="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" presName="rootConnector3" presStyleLbl="asst4" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3577,128 +3244,6 @@
       <dgm:prSet presAssocID="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{CCC151FA-1A0B-4E17-9AAC-33D3664062CB}" type="pres">
-      <dgm:prSet presAssocID="{3D7C57FA-8791-4FCE-8829-A303F4492878}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="26" presStyleCnt="29"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{3A76E6D8-CF2C-47B1-AC7C-3C8B27C2708F}" type="pres">
-      <dgm:prSet presAssocID="{091740D7-C235-4DA6-9F6F-E6070C38189A}" presName="hierRoot3" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{CC5350F7-C7DF-43F3-9F67-BEC6FD02EF95}" type="pres">
-      <dgm:prSet presAssocID="{091740D7-C235-4DA6-9F6F-E6070C38189A}" presName="rootComposite3" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{CDBD0B08-2B12-4AF3-BFDC-AF29F28EC0D1}" type="pres">
-      <dgm:prSet presAssocID="{091740D7-C235-4DA6-9F6F-E6070C38189A}" presName="rootText3" presStyleLbl="asst4" presStyleIdx="4" presStyleCnt="6" custLinFactX="74356" custLinFactY="-66132" custLinFactNeighborX="100000" custLinFactNeighborY="-100000">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{58AB1621-F2AB-41CB-A75A-BA500A0B1253}" type="pres">
-      <dgm:prSet presAssocID="{091740D7-C235-4DA6-9F6F-E6070C38189A}" presName="rootConnector3" presStyleLbl="asst4" presStyleIdx="4" presStyleCnt="6"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{F175F2B5-8386-4C3D-8DF0-5F148CB3FF92}" type="pres">
-      <dgm:prSet presAssocID="{091740D7-C235-4DA6-9F6F-E6070C38189A}" presName="hierChild6" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B7EA8594-66DA-43DB-B20A-C2AAA6BC7F58}" type="pres">
-      <dgm:prSet presAssocID="{091740D7-C235-4DA6-9F6F-E6070C38189A}" presName="hierChild7" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C712DD62-0E2B-4B07-8F4D-A7C17A6B9046}" type="pres">
-      <dgm:prSet presAssocID="{205659EA-F91B-4619-9414-2599E62E2BA5}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B99788E4-0251-4EC8-A38E-D14759277481}" type="pres">
-      <dgm:prSet presAssocID="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{272D8880-E493-441E-8BFF-FA14A79EA53B}" type="pres">
-      <dgm:prSet presAssocID="{9520FC2D-6CD5-4388-BE91-AA6F78B05136}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="27" presStyleCnt="29"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{273E6825-8D78-4A3E-AFF3-A0259ED2E762}" type="pres">
-      <dgm:prSet presAssocID="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" presName="hierRoot3" presStyleCnt="0">
-        <dgm:presLayoutVars>
-          <dgm:hierBranch val="init"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{B4681627-75C8-4A1E-8AFA-D4294FE9A0F5}" type="pres">
-      <dgm:prSet presAssocID="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" presName="rootComposite3" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{59A62163-7996-45D8-982B-C03ED1A0B491}" type="pres">
-      <dgm:prSet presAssocID="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" presName="rootText3" presStyleLbl="asst4" presStyleIdx="5" presStyleCnt="6" custLinFactY="-62842" custLinFactNeighborX="-87178" custLinFactNeighborY="-100000">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{5D09497E-8FCB-497A-84C9-34FD127E62C3}" type="pres">
-      <dgm:prSet presAssocID="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" presName="rootConnector3" presStyleLbl="asst4" presStyleIdx="5" presStyleCnt="6"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{FC042C08-CD25-46B7-89DA-E2437FFA0E94}" type="pres">
-      <dgm:prSet presAssocID="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" presName="hierChild6" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6D55F240-F208-4A92-A978-2F33A05BEEC7}" type="pres">
-      <dgm:prSet presAssocID="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" presName="hierChild7" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
     <dgm:pt modelId="{5BEA0189-F988-4824-9629-B407130A0B5D}" type="pres">
       <dgm:prSet presAssocID="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
@@ -3708,7 +3253,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{61CE48A3-0777-43D7-8D1C-882307BDCBC6}" type="pres">
-      <dgm:prSet presAssocID="{C06A5097-BD42-48CF-8A50-E368182AFC48}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="28" presStyleCnt="29"/>
+      <dgm:prSet presAssocID="{C06A5097-BD42-48CF-8A50-E368182AFC48}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="22"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3774,134 +3319,106 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{50D5A7BA-B101-4BD7-BD45-C4CC7A440840}" type="presOf" srcId="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" destId="{F0559929-F662-46DA-BF2D-295B2BE10601}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F3E4FE4E-5A2B-4A31-BBC5-943D82EF35F7}" type="presOf" srcId="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" destId="{D582A622-F082-4FFA-90A4-10FCC5EBBA1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C48B98BA-F8FA-4F7C-B941-311E927B2AC7}" type="presOf" srcId="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" destId="{89C6EE15-7404-4350-A4E2-E01D99D25F07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{88B171D7-843D-4733-9855-25ACD3676334}" type="presOf" srcId="{13E88B0D-94B7-44F5-86FF-C7DC7C96907D}" destId="{F1C115F3-7689-4248-8F15-5ADB4A5E41E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B07A4E18-1F2C-4B6E-89DA-A145B1862434}" type="presOf" srcId="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" destId="{CA6C17FE-417B-4355-BBDC-45A7403EE4A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8F1B8B23-774B-46F2-8278-8862B7B5424F}" type="presOf" srcId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" destId="{370E1234-2697-4AC5-81E2-1B16F79AD861}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{36074C15-5B28-4E0B-A40C-3F5D4492194C}" type="presOf" srcId="{53CD3394-856B-4A54-B0F4-01E272E47A39}" destId="{092D19DD-7BA6-4B64-9E4E-B1D540429B26}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A30E5A22-76AF-47F0-8FBC-8084052F950B}" type="presOf" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{844F720F-8888-41D5-9C8A-8E8313B26C01}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0AE1A1EF-9E5B-48E1-A17D-23438495ADE7}" type="presOf" srcId="{C0CAAB84-DA97-438A-AA59-326891191159}" destId="{704E46B6-9C5B-4BF0-8B2F-AA956B2F6717}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{61E1EA73-B49F-4580-A08B-1D04A92B6E9A}" type="presOf" srcId="{C8A5F967-33A1-43F2-A587-C685472EC28A}" destId="{46DAEBF6-0A5C-43AE-B9F7-DE231E995B1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5162E936-B50E-47B1-9331-D9C98BF2F8D7}" type="presOf" srcId="{231AB027-9786-4CF5-B3F5-D00125516F53}" destId="{CDC76A16-1ABA-4232-988B-3F4D3C15F155}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1ECD4BA9-354B-4F40-9AE1-A53C2591EA99}" type="presOf" srcId="{27B2DCF1-CB4A-4E28-A830-AA7E2DBB34F5}" destId="{481093D2-35B1-4F63-B4DA-9EFD4CF11BA2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D6599D33-3A0E-4EA9-A543-597DF598EA9B}" type="presOf" srcId="{D293981D-C319-45AD-A9A4-8FFA3D71CE84}" destId="{8D4D2CA9-ECD4-493D-BDF7-E85363F5DD67}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{26116C5E-A490-4D8A-AAFB-8F57FD25E89C}" srcId="{45AB81D0-4942-49FD-9320-063964A3A55A}" destId="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" srcOrd="1" destOrd="0" parTransId="{86161FF0-DB75-44B4-B481-37086A5C7D94}" sibTransId="{50EEA0BE-67BA-456D-8F68-33C1E1F67B9F}"/>
+    <dgm:cxn modelId="{71873264-D89F-4F9A-8966-F7F813DA6475}" srcId="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" destId="{53CD3394-856B-4A54-B0F4-01E272E47A39}" srcOrd="0" destOrd="0" parTransId="{74CBAFDB-F954-4B13-A2A1-E376B251D37F}" sibTransId="{308BACC6-5664-4B49-8F28-A84DA8DC4927}"/>
+    <dgm:cxn modelId="{3F501E26-2161-499E-8621-701F9DBAB916}" srcId="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" destId="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" srcOrd="0" destOrd="0" parTransId="{261E041B-3BA4-448C-8C1D-3DC6EF9DEC44}" sibTransId="{474AA97E-5010-452A-B18F-7AD6881CDF77}"/>
+    <dgm:cxn modelId="{D0F1C040-F24E-4FB2-A046-E79345E79C87}" srcId="{58A54F7C-0E88-4970-BF83-7937347376DA}" destId="{1E99BE96-3A99-422E-ADDD-2F20CF5AACB6}" srcOrd="0" destOrd="0" parTransId="{6D5907EA-7A56-4CEB-BDD4-1089149D7152}" sibTransId="{75875A0A-3192-4639-9587-409920482D59}"/>
+    <dgm:cxn modelId="{003759F8-B22D-4A73-AF75-AB268F005E81}" type="presOf" srcId="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" destId="{A0924645-04A3-40BB-8B76-40C1983BEFBD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E2BDE7A2-7BF1-47A7-83E4-3B8C4DBD7DF7}" type="presOf" srcId="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" destId="{927DFF84-910C-4F85-B42F-F563743B5E13}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{08B12E53-4F72-411E-84D8-53EC03278FA6}" type="presOf" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{DA8F9D03-B5B3-49F9-AEEF-C2E546A8C7A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6C6E8C81-4100-4D70-8BAB-78261422264D}" srcId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" destId="{231AB027-9786-4CF5-B3F5-D00125516F53}" srcOrd="0" destOrd="0" parTransId="{CD3E5EC0-0731-431E-8757-06CF707694F1}" sibTransId="{E196CDB7-2FCF-4F07-9F63-D0F598FD1DD1}"/>
+    <dgm:cxn modelId="{28F1FCBC-F193-416F-A19C-FAD2D1957C89}" type="presOf" srcId="{F915F4CA-CB41-435B-A83A-D89F156B44D0}" destId="{31029E5D-38F0-4445-AD80-D53D3829D0D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{08A30BB4-EB8A-4158-9577-475B9F3F15C0}" type="presOf" srcId="{9E2E6255-E15A-47D5-ABB9-E299E9AFCFBE}" destId="{B440F889-F3DB-4D8A-8934-5680DA0624D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DE8DCF25-DCAC-4122-B3BF-7B67361B8E41}" type="presOf" srcId="{CD3E5EC0-0731-431E-8757-06CF707694F1}" destId="{26F22A2A-8CC6-4F36-8B51-83033FA5AEF5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2BA0E5FD-2C34-4F43-9CCD-9780EB2EF721}" srcId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" destId="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" srcOrd="0" destOrd="0" parTransId="{3D387E21-D664-40EC-B2E5-C7BE39BA0204}" sibTransId="{792A4FB0-EE9F-4110-B239-04E1CFE15824}"/>
+    <dgm:cxn modelId="{D1E2EDDB-2AFE-4050-B9BE-A03C92EAE036}" type="presOf" srcId="{3CB7A34E-1FE6-4768-83C2-EE9E6DB20C7C}" destId="{A94FF376-DFE8-4C94-A66B-1A7284D94823}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{882BD680-D14F-43B0-B124-2010244F2D3B}" type="presOf" srcId="{4538390B-EDBC-415D-ADA9-428328B41C55}" destId="{B43B54FF-4968-4B80-9518-77BDFE55A029}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6242AB47-D562-4890-B8C5-EBA644C06B07}" type="presOf" srcId="{9799EC60-D3F1-4C1D-8896-54318B7167F1}" destId="{8BD74B98-4F93-477B-869F-D8A12B7BAF2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7EE43C49-4E12-4D17-A8DC-FADFF39407D2}" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" srcOrd="2" destOrd="0" parTransId="{98C958A0-04A1-4F6F-A137-E7AFF5332D2E}" sibTransId="{0BEE42E8-5B85-4C62-BD07-E14C90456320}"/>
+    <dgm:cxn modelId="{B7D1C4CB-1A20-497B-912A-343792FD6D94}" type="presOf" srcId="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" destId="{6700433B-7E45-4267-AA10-ABA43A4ED20C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{011D00B7-007A-4447-9040-F8B9CF24D046}" type="presOf" srcId="{3CB7A34E-1FE6-4768-83C2-EE9E6DB20C7C}" destId="{A6EB0445-7130-4121-8192-AAA6B028CDFF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2B3AAFBB-CE01-4015-8E27-05ADF4F5C8FE}" srcId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" destId="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" srcOrd="1" destOrd="0" parTransId="{85D8D6BF-FF79-4DDD-98C8-3C9CA4291EB5}" sibTransId="{4B89A52A-562F-43A6-90CF-DB1705BA97DE}"/>
-    <dgm:cxn modelId="{D1E2EDDB-2AFE-4050-B9BE-A03C92EAE036}" type="presOf" srcId="{3CB7A34E-1FE6-4768-83C2-EE9E6DB20C7C}" destId="{A94FF376-DFE8-4C94-A66B-1A7284D94823}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{91F4A4F9-4039-405E-A7FA-30C416B2DA3F}" type="presOf" srcId="{205659EA-F91B-4619-9414-2599E62E2BA5}" destId="{2555DBA0-9B5C-49EE-817E-B609FE182F55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6317F9AF-3D3D-4709-B36A-FB9DBB040FA4}" type="presOf" srcId="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" destId="{712B008C-84F8-47B6-9EA2-F32FF626FE45}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E40F4F97-1489-4525-84B8-FCCC02B2AAD1}" type="presOf" srcId="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" destId="{7430C116-4000-412F-B70D-C86841DE3E5D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{48AC529C-693E-4FC2-AA8D-9C9924549B0A}" type="presOf" srcId="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" destId="{C5AC313F-9E85-4FED-9162-78CA68DCB05A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{83CE2C01-7E7E-4ED3-B73A-545E8425EC88}" type="presOf" srcId="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" destId="{CC216CED-9E3B-4875-8F0B-1A7DDFD6106B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E0E3C6D3-5B39-479C-87C6-E2DBEB1B2F3B}" type="presOf" srcId="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" destId="{D9AD0D1A-E917-4FEC-84F3-7545C3E11398}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A16A820B-062E-4E79-A283-C6FC1B1BFD6B}" type="presOf" srcId="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" destId="{8696FB2F-B74C-4284-93FD-CADDEAD018DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C57D7112-1217-4274-8A7E-E5ABC52B6677}" type="presOf" srcId="{6D5907EA-7A56-4CEB-BDD4-1089149D7152}" destId="{BE6AED42-ACF5-444B-9D87-0C3700717F51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5DB20D90-9329-4AC4-AC8A-B4428A85BE60}" type="presOf" srcId="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" destId="{09AE2075-226C-4D6D-AB4A-51AA4E24709D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ED4F964B-6FD3-44DD-8F95-73E75B88016A}" type="presOf" srcId="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" destId="{6B61E405-3DC9-4012-9930-EAC68FD4D653}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{242BFFFA-00A3-4B61-ACB3-A54C310C7AC8}" srcId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" destId="{45AB81D0-4942-49FD-9320-063964A3A55A}" srcOrd="1" destOrd="0" parTransId="{73E4700B-1EA4-44CD-9022-D2AA0606EF61}" sibTransId="{43297B59-FE43-4F23-A9FB-2D86885C8237}"/>
+    <dgm:cxn modelId="{E110BC68-C56D-4447-A005-FF4F75764CE6}" type="presOf" srcId="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" destId="{15749489-7B40-4C23-BBA3-2B8DB0F18E81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{01BD3802-D578-407A-BC5F-15DE043E4F1C}" type="presOf" srcId="{261E041B-3BA4-448C-8C1D-3DC6EF9DEC44}" destId="{B2B65F4D-9EE8-4AF4-AAA0-11BF84EAB3E7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{53E47F53-6533-43E4-BDD2-8B785C78AEAA}" type="presOf" srcId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" destId="{0203E005-081B-4C10-ACD8-1AC7794EC88E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{93C37F8A-1492-492D-A7CD-F321C936E3F0}" type="presOf" srcId="{1E99BE96-3A99-422E-ADDD-2F20CF5AACB6}" destId="{5A41F4D0-4E55-4096-9869-122E034906D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{FF4F00E9-0ACF-40F9-9859-D523464D8E4A}" type="presOf" srcId="{C06A5097-BD42-48CF-8A50-E368182AFC48}" destId="{61CE48A3-0777-43D7-8D1C-882307BDCBC6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{788706E3-9E11-46DC-A7EB-ED36A349EBB1}" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" srcOrd="1" destOrd="0" parTransId="{D293981D-C319-45AD-A9A4-8FFA3D71CE84}" sibTransId="{D22DC8F7-1649-4EBE-AE9A-2C82FD63F71D}"/>
+    <dgm:cxn modelId="{0A273D8D-C189-49E7-9276-E6EDA3CCA013}" type="presOf" srcId="{85D8D6BF-FF79-4DDD-98C8-3C9CA4291EB5}" destId="{A58F2B6C-7117-4331-AC97-CC25D7002555}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8DF2D372-15AB-4B85-B57D-61E8E68D8732}" type="presOf" srcId="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" destId="{1D3F302F-C8DC-4950-9F70-A879CFA08C76}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D2213544-2811-41F7-9540-3AE8FE7C5B4B}" type="presOf" srcId="{93FF5A89-F786-4F80-85AE-6C204538665B}" destId="{C37D4FBA-EF1F-44B0-855C-3B564A6A48FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{837739B1-8EE0-4FFD-8995-B5BE43107EA3}" type="presOf" srcId="{45AB81D0-4942-49FD-9320-063964A3A55A}" destId="{39F5929B-9743-4646-85A6-63799662CF4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{00D71E8C-87A7-45D5-B5A6-DEE1E1B7019B}" type="presOf" srcId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" destId="{EC47C248-2C2E-4C81-881E-A4378E48247D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BF3F0199-EBEB-43D7-A0DA-6E6479868103}" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" srcOrd="2" destOrd="0" parTransId="{27B2DCF1-CB4A-4E28-A830-AA7E2DBB34F5}" sibTransId="{6CE669EA-AF7E-43B1-8E46-871D570947D5}"/>
+    <dgm:cxn modelId="{4331AE78-1BEA-457E-9979-A72ACF24414B}" type="presOf" srcId="{86161FF0-DB75-44B4-B481-37086A5C7D94}" destId="{8F3D0191-C403-4316-9539-AA954BE1280A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C2202195-E345-4C88-879D-275FAD390F38}" srcId="{1E99BE96-3A99-422E-ADDD-2F20CF5AACB6}" destId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" srcOrd="0" destOrd="0" parTransId="{52092067-E9BC-4487-B807-5EEFF200F53E}" sibTransId="{95D93097-E2EB-4E7D-B1F9-E39BCE63B053}"/>
+    <dgm:cxn modelId="{3042893A-771E-4B22-80B9-0AC1484E63CE}" type="presOf" srcId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" destId="{88F9CCC8-2B12-43AC-983F-964E61DCB528}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6B300B19-8E38-4E26-BF78-C70A5E17AB8F}" type="presOf" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{AE453DB4-B928-468B-8601-9371E2BBBBA0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BF9494BE-3EA7-4FF7-BA6A-4C7B5A041BF4}" type="presOf" srcId="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" destId="{04E06FC5-75F9-41F5-B96D-A2BA541EFC55}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{49D066EB-363F-4125-B0D6-B9AA1F207090}" type="presOf" srcId="{1E99BE96-3A99-422E-ADDD-2F20CF5AACB6}" destId="{799172A6-4551-45E0-BD51-FA11B73798A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AEAC4CA8-EC9A-46DD-BB07-A38652C0AD5B}" type="presOf" srcId="{3B605381-41D1-45DE-B099-DCF2360AC723}" destId="{40D07927-79AC-4C9F-AC74-95D7DC0AFB16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B372F7E3-0E72-4E53-A557-07EA76191A8C}" type="presOf" srcId="{C0CAAB84-DA97-438A-AA59-326891191159}" destId="{FC48BD82-19EB-4536-A8E5-9192F66DE36A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C7FEB56A-55DE-4203-BE92-7434CDB60932}" type="presOf" srcId="{4BE8AF11-A06B-455E-84E7-C472C71C32E7}" destId="{2B74CA2E-4E95-4685-8B83-497A8BB8C157}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{37CE3A51-DE81-4EED-BBF7-22B14B1122E4}" type="presOf" srcId="{F6230248-9A22-4714-A606-FF4E27A8853D}" destId="{4DD5575A-A70E-4351-A842-5DFC53B4D3F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5DBD6817-4FA5-4187-85AA-E0B9424E5DB9}" type="presOf" srcId="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" destId="{360F100E-2821-4F68-BF6E-F50D9696266B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F31E4EBE-117A-477D-8788-043E8922CDE3}" srcId="{5AD00427-FE0C-46CF-8572-5D02020267B8}" destId="{58A54F7C-0E88-4970-BF83-7937347376DA}" srcOrd="0" destOrd="0" parTransId="{0199E409-2F3C-4E21-AC1A-FDA54DE2874E}" sibTransId="{E1029EBF-562E-4BC9-98A1-D7ECFF414F07}"/>
+    <dgm:cxn modelId="{ACCC9C15-CEB5-4F56-BF5C-257071BC3A03}" type="presOf" srcId="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" destId="{D4197FE3-7C68-4EA0-A381-9045A01904C0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C3677543-BC38-449C-8F3D-660C4404BCBE}" type="presOf" srcId="{58A54F7C-0E88-4970-BF83-7937347376DA}" destId="{8BBBCD07-06BC-49E3-8417-1B81A74C9CA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4A7C3687-FC47-4FBA-85FD-CB2B00DAC1C9}" type="presOf" srcId="{53CD3394-856B-4A54-B0F4-01E272E47A39}" destId="{B394C574-A5E7-4981-B328-6335554E598B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{04004558-D73F-4393-9D14-8C574897A930}" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{C0CAAB84-DA97-438A-AA59-326891191159}" srcOrd="0" destOrd="0" parTransId="{3B605381-41D1-45DE-B099-DCF2360AC723}" sibTransId="{8E932EF0-90F3-4084-AD5D-732A9CEF3DA9}"/>
+    <dgm:cxn modelId="{55C1BE16-9B34-4492-A68E-03C3FC39B68F}" type="presOf" srcId="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" destId="{6E172DDF-88B6-43F7-8206-C673A88C2D06}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3694F4DF-6CC3-492C-8012-33DF431AE50C}" type="presOf" srcId="{AF98AC07-83EA-4682-BD69-A7C5011F59F5}" destId="{5E4811F8-319E-49AA-822D-42E50E9427F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1D9D5A0C-1722-47BC-AB1F-0B91F5509288}" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" srcOrd="0" destOrd="0" parTransId="{13E88B0D-94B7-44F5-86FF-C7DC7C96907D}" sibTransId="{330F6EB8-2C9C-4A25-AF5B-484711842526}"/>
+    <dgm:cxn modelId="{065B6FA8-4D92-40A5-B3D0-F5CC203F65DB}" srcId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" destId="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" srcOrd="0" destOrd="0" parTransId="{AF98AC07-83EA-4682-BD69-A7C5011F59F5}" sibTransId="{788A933F-EAA8-41E1-B1FE-DED9948F0676}"/>
+    <dgm:cxn modelId="{B2E47A60-315B-4B82-A180-DC90E4175BE3}" type="presOf" srcId="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" destId="{CC3318FF-CB9E-4673-810C-95009695D84C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B3695BAD-BB98-4E69-B50A-C0BB85A671CA}" srcId="{231AB027-9786-4CF5-B3F5-D00125516F53}" destId="{F6230248-9A22-4714-A606-FF4E27A8853D}" srcOrd="0" destOrd="0" parTransId="{4BE8AF11-A06B-455E-84E7-C472C71C32E7}" sibTransId="{8D732FE9-B29F-48AE-B358-0FC8BF23BB31}"/>
+    <dgm:cxn modelId="{422244B0-049D-4C84-89DC-654E23593609}" type="presOf" srcId="{74CBAFDB-F954-4B13-A2A1-E376B251D37F}" destId="{1ABD0C0D-2167-4E5E-9426-B401594EE7B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3F2D1112-67B0-488A-943B-49CB41558FAF}" type="presOf" srcId="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" destId="{1DF86D04-7972-4C82-85DE-84683C027A28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{94D474AF-9269-4D03-A65A-4B8A3E180922}" type="presOf" srcId="{98C958A0-04A1-4F6F-A137-E7AFF5332D2E}" destId="{442ECB07-1145-4ABB-98B9-5777DA12DB5B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9E5783CC-A925-4938-AFB3-E12DED989F53}" type="presOf" srcId="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" destId="{72B9246D-E7DE-4437-9795-7238B2DAEBCB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0AAE102A-6B85-4DB4-86E0-692BEB6E5093}" srcId="{53CD3394-856B-4A54-B0F4-01E272E47A39}" destId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" srcOrd="1" destOrd="0" parTransId="{C8A5F967-33A1-43F2-A587-C685472EC28A}" sibTransId="{46292B57-E636-4E46-BFC9-A2BAC884DF1B}"/>
+    <dgm:cxn modelId="{6036ED9F-827F-4D54-90B8-B30CE865958F}" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" srcOrd="3" destOrd="0" parTransId="{4538390B-EDBC-415D-ADA9-428328B41C55}" sibTransId="{D5638E7F-0009-4153-ADF0-24C91F0C9CB6}"/>
+    <dgm:cxn modelId="{BE2EFCFA-C5C7-489F-951C-B70A0DD134B8}" type="presOf" srcId="{231AB027-9786-4CF5-B3F5-D00125516F53}" destId="{D83CE99C-0515-4014-92FC-9219C146CCA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{65FC147E-7CE2-4B7D-A18E-A3762B5B2782}" type="presOf" srcId="{52092067-E9BC-4487-B807-5EEFF200F53E}" destId="{E25C91B8-7109-4B59-AE97-D4BE4F08F148}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7BEBAC5B-CC05-4046-9515-7F834A41A01D}" type="presOf" srcId="{45AB81D0-4942-49FD-9320-063964A3A55A}" destId="{5707B9E7-4EC4-48F3-B5B7-C0F4AD71878C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{12C7C56E-29D2-4615-9421-4B52894CB5A1}" type="presOf" srcId="{F6230248-9A22-4714-A606-FF4E27A8853D}" destId="{DFD166F7-29ED-4BF3-B6EA-EF547E469607}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0BF3DAAE-E973-417A-A7D8-61E49DE54E72}" type="presOf" srcId="{179709A3-AD52-4157-BEA8-42333A15942D}" destId="{1713D8DE-AF42-4A62-9BFB-FA22A93B4B22}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D0C03588-6487-4FD4-A474-FA890CE70353}" type="presOf" srcId="{3D387E21-D664-40EC-B2E5-C7BE39BA0204}" destId="{A7021507-15C2-4974-82F8-E8F19B8A460B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4E6332CD-8918-4864-A72C-3746950E1457}" type="presOf" srcId="{73E4700B-1EA4-44CD-9022-D2AA0606EF61}" destId="{FBC79CCD-8433-44C4-BDA4-24CA8CE015F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FD649678-1A97-4F0C-9C47-1FA759F9AED6}" type="presOf" srcId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" destId="{83824BC3-69C6-471D-8653-29FFCA69FAD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D7B183BB-DA81-41DA-BD37-54B42E479D73}" type="presOf" srcId="{13E88B0D-94B7-44F5-86FF-C7DC7C96907D}" destId="{F1C115F3-7689-4248-8F15-5ADB4A5E41E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B4C07642-41E0-4AD7-8E51-4D1B5B029EB0}" type="presOf" srcId="{5AD00427-FE0C-46CF-8572-5D02020267B8}" destId="{18D22F45-37B1-4CDA-B584-95E95D3BAEA6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A6493BD3-E969-47B0-BDF7-FE3587BF756A}" type="presOf" srcId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" destId="{EC47C248-2C2E-4C81-881E-A4378E48247D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F52DBC2-000E-4B76-BB3F-750902344535}" type="presOf" srcId="{231AB027-9786-4CF5-B3F5-D00125516F53}" destId="{D83CE99C-0515-4014-92FC-9219C146CCA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{102FE2E8-5D6B-468E-B4FF-B9D5DEFEA811}" type="presOf" srcId="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" destId="{09AE2075-226C-4D6D-AB4A-51AA4E24709D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7E1A4C94-15A3-4336-ADE0-1CC01B42525D}" type="presOf" srcId="{F5360B58-A336-4E36-B5CF-089FF0AF7013}" destId="{8F2BAA84-1091-4A24-AD29-B4B8AAD7C52A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{430EE1CB-2431-447C-A68F-A76B8421A4F9}" type="presOf" srcId="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" destId="{7430C116-4000-412F-B70D-C86841DE3E5D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C57D7112-1217-4274-8A7E-E5ABC52B6677}" type="presOf" srcId="{6D5907EA-7A56-4CEB-BDD4-1089149D7152}" destId="{BE6AED42-ACF5-444B-9D87-0C3700717F51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FEBEA57B-BAC6-436C-8769-230DE533431F}" type="presOf" srcId="{457AD91D-2021-4B58-821A-44D62CEBE284}" destId="{1EADF556-E115-4146-8827-100B4A4D9461}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{14256C17-ED10-49AD-9EE6-880F8AF21D10}" type="presOf" srcId="{E19740CE-863C-46E0-81FB-29573464BD8E}" destId="{BFDBAFCF-10EB-4F26-91BC-8798F7E93322}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D9A185A2-2423-4322-883C-F8DDEB111DF0}" type="presOf" srcId="{9520FC2D-6CD5-4388-BE91-AA6F78B05136}" destId="{272D8880-E493-441E-8BFF-FA14A79EA53B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{011D00B7-007A-4447-9040-F8B9CF24D046}" type="presOf" srcId="{3CB7A34E-1FE6-4768-83C2-EE9E6DB20C7C}" destId="{A6EB0445-7130-4121-8192-AAA6B028CDFF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EB528A2F-AF70-4C5B-BFF1-0648A9CBF1D3}" type="presOf" srcId="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" destId="{6B61E405-3DC9-4012-9930-EAC68FD4D653}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2C66967E-D151-42A7-9461-9DCB83FA90F3}" type="presOf" srcId="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" destId="{15749489-7B40-4C23-BBA3-2B8DB0F18E81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B3695BAD-BB98-4E69-B50A-C0BB85A671CA}" srcId="{231AB027-9786-4CF5-B3F5-D00125516F53}" destId="{F6230248-9A22-4714-A606-FF4E27A8853D}" srcOrd="0" destOrd="0" parTransId="{4BE8AF11-A06B-455E-84E7-C472C71C32E7}" sibTransId="{8D732FE9-B29F-48AE-B358-0FC8BF23BB31}"/>
-    <dgm:cxn modelId="{E9B9A98C-F122-44A9-B1C0-65BF39AE7E3C}" type="presOf" srcId="{3D7C57FA-8791-4FCE-8829-A303F4492878}" destId="{CCC151FA-1A0B-4E17-9AAC-33D3664062CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{71873264-D89F-4F9A-8966-F7F813DA6475}" srcId="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" destId="{53CD3394-856B-4A54-B0F4-01E272E47A39}" srcOrd="0" destOrd="0" parTransId="{74CBAFDB-F954-4B13-A2A1-E376B251D37F}" sibTransId="{308BACC6-5664-4B49-8F28-A84DA8DC4927}"/>
-    <dgm:cxn modelId="{2BA0E5FD-2C34-4F43-9CCD-9780EB2EF721}" srcId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" destId="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" srcOrd="0" destOrd="0" parTransId="{3D387E21-D664-40EC-B2E5-C7BE39BA0204}" sibTransId="{792A4FB0-EE9F-4110-B239-04E1CFE15824}"/>
-    <dgm:cxn modelId="{8F1B8B23-774B-46F2-8278-8862B7B5424F}" type="presOf" srcId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" destId="{370E1234-2697-4AC5-81E2-1B16F79AD861}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EDB69EBC-A2B8-4B5B-BD1D-292F74F2BE90}" type="presOf" srcId="{58A54F7C-0E88-4970-BF83-7937347376DA}" destId="{51835B02-970D-4055-B944-949ECAB59213}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CB39ED90-D871-45DB-9371-16E4A4040B46}" type="presOf" srcId="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" destId="{55D45C88-E238-4890-BC8D-B335EBEAE613}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{883F26A5-1684-44C9-9FDB-BE47E1918CC1}" srcId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" destId="{3CB7A34E-1FE6-4768-83C2-EE9E6DB20C7C}" srcOrd="1" destOrd="0" parTransId="{C06A5097-BD42-48CF-8A50-E368182AFC48}" sibTransId="{A9FC691A-E977-4839-B143-02100B43C975}"/>
+    <dgm:cxn modelId="{FF462B40-CD70-4A29-9244-69C209F33DF9}" type="presOf" srcId="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" destId="{603B877B-343F-4384-B81E-A743DDE75595}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{20BDE5B4-3171-46D2-8EB2-E3284D5EB7BF}" type="presOf" srcId="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" destId="{A1A4778F-0BBA-4C0E-AFCB-D1779CC6ABB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EF224AFF-ACF0-4C3D-8192-A50612484F9D}" srcId="{45AB81D0-4942-49FD-9320-063964A3A55A}" destId="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" srcOrd="0" destOrd="0" parTransId="{F915F4CA-CB41-435B-A83A-D89F156B44D0}" sibTransId="{6985891D-40A6-4F46-BCEC-7FDC5EF7E9EC}"/>
+    <dgm:cxn modelId="{B0F69F58-02E5-4F5A-9974-D4256291E813}" srcId="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" destId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" srcOrd="0" destOrd="0" parTransId="{93FF5A89-F786-4F80-85AE-6C204538665B}" sibTransId="{DE0A3B6F-3BC5-41FE-8D97-AEF4D88C871D}"/>
+    <dgm:cxn modelId="{71DFF255-2E8F-4C85-9DFA-2A0B5B27449B}" type="presOf" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{02C6B524-D8FC-495D-B3F3-DD87F2B607B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{406AF062-D5D4-442F-8FC6-5129A5404B09}" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" srcOrd="1" destOrd="0" parTransId="{9799EC60-D3F1-4C1D-8896-54318B7167F1}" sibTransId="{E8379CE3-0CD7-4507-BC75-92F7FC92251C}"/>
+    <dgm:cxn modelId="{FC6E6967-BC93-44F2-9A8C-754D500B5B10}" srcId="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" destId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" srcOrd="0" destOrd="0" parTransId="{179709A3-AD52-4157-BEA8-42333A15942D}" sibTransId="{1CA63328-E7DE-4F8C-96BC-AEA13426C7DC}"/>
+    <dgm:cxn modelId="{ECA92734-9D8C-415B-83F9-4F91E9644401}" type="presOf" srcId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" destId="{3D452E87-2559-443E-9433-3995CBCA8C28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{0316F556-BF11-4C23-80D0-6F98176B7B3B}" srcId="{53CD3394-856B-4A54-B0F4-01E272E47A39}" destId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" srcOrd="0" destOrd="0" parTransId="{9E2E6255-E15A-47D5-ABB9-E299E9AFCFBE}" sibTransId="{5D2C27B9-DA57-4516-8224-F9BF5622C08E}"/>
-    <dgm:cxn modelId="{6E92587B-B59E-4A7A-B3DF-7A9A9376C6A3}" type="presOf" srcId="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" destId="{61D04746-DD26-4AC2-9045-FD7B63B70FA6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6B56BEF8-EADB-4404-9AFA-CADBD7FCD161}" type="presOf" srcId="{15C8A67B-5AB7-4DB7-9FAD-ECEEDBA7FF55}" destId="{B28C6FC9-0E36-4800-848D-558D3659DF83}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6D5A3C38-D9E0-4543-A2A2-DC00A7216F91}" type="presOf" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{AE453DB4-B928-468B-8601-9371E2BBBBA0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8DFB9500-CD38-41B0-9DB9-106DB0C68006}" type="presOf" srcId="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" destId="{CA6C17FE-417B-4355-BBDC-45A7403EE4A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2CD8DEF7-19F6-4608-90D9-FFE52E6496CF}" type="presOf" srcId="{4BE8AF11-A06B-455E-84E7-C472C71C32E7}" destId="{2B74CA2E-4E95-4685-8B83-497A8BB8C157}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F31E4EBE-117A-477D-8788-043E8922CDE3}" srcId="{5AD00427-FE0C-46CF-8572-5D02020267B8}" destId="{58A54F7C-0E88-4970-BF83-7937347376DA}" srcOrd="0" destOrd="0" parTransId="{0199E409-2F3C-4E21-AC1A-FDA54DE2874E}" sibTransId="{E1029EBF-562E-4BC9-98A1-D7ECFF414F07}"/>
-    <dgm:cxn modelId="{C2515CEE-CA40-4522-9889-B144BAF8915E}" type="presOf" srcId="{4538390B-EDBC-415D-ADA9-428328B41C55}" destId="{B43B54FF-4968-4B80-9518-77BDFE55A029}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{98CEF387-5851-44C7-AE8E-16AB5B1D716D}" type="presOf" srcId="{091740D7-C235-4DA6-9F6F-E6070C38189A}" destId="{58AB1621-F2AB-41CB-A75A-BA500A0B1253}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{883F26A5-1684-44C9-9FDB-BE47E1918CC1}" srcId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" destId="{3CB7A34E-1FE6-4768-83C2-EE9E6DB20C7C}" srcOrd="1" destOrd="0" parTransId="{C06A5097-BD42-48CF-8A50-E368182AFC48}" sibTransId="{A9FC691A-E977-4839-B143-02100B43C975}"/>
-    <dgm:cxn modelId="{B8F9E806-69E6-4C73-B28E-B530B118DDB4}" type="presOf" srcId="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" destId="{712B008C-84F8-47B6-9EA2-F32FF626FE45}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B2E47A60-315B-4B82-A180-DC90E4175BE3}" type="presOf" srcId="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" destId="{CC3318FF-CB9E-4673-810C-95009695D84C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E73EA8C2-F57B-4D93-98EA-5053578498FC}" type="presOf" srcId="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" destId="{360F100E-2821-4F68-BF6E-F50D9696266B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6C6E8C81-4100-4D70-8BAB-78261422264D}" srcId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" destId="{231AB027-9786-4CF5-B3F5-D00125516F53}" srcOrd="0" destOrd="0" parTransId="{CD3E5EC0-0731-431E-8757-06CF707694F1}" sibTransId="{E196CDB7-2FCF-4F07-9F63-D0F598FD1DD1}"/>
-    <dgm:cxn modelId="{591C2312-3571-4671-BA06-B3811AFB36DC}" type="presOf" srcId="{53CD3394-856B-4A54-B0F4-01E272E47A39}" destId="{B394C574-A5E7-4981-B328-6335554E598B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9A0C38F2-07BE-4BD9-85E8-40E44C1A36F4}" type="presOf" srcId="{45AB81D0-4942-49FD-9320-063964A3A55A}" destId="{5707B9E7-4EC4-48F3-B5B7-C0F4AD71878C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9FAFE09D-C726-4804-93D7-6C390952C345}" type="presOf" srcId="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" destId="{C5AC313F-9E85-4FED-9162-78CA68DCB05A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{65FC147E-7CE2-4B7D-A18E-A3762B5B2782}" type="presOf" srcId="{52092067-E9BC-4487-B807-5EEFF200F53E}" destId="{E25C91B8-7109-4B59-AE97-D4BE4F08F148}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{11EAB31A-44FB-41C3-B4B6-0D4E3BDB8D1F}" type="presOf" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{844F720F-8888-41D5-9C8A-8E8313B26C01}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{18A1FCDB-28C7-46E5-86E7-5826E8B0B0EC}" type="presOf" srcId="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" destId="{1D3F302F-C8DC-4950-9F70-A879CFA08C76}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ED53B475-1476-4CDA-83C2-9B8082C7183A}" type="presOf" srcId="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" destId="{CC216CED-9E3B-4875-8F0B-1A7DDFD6106B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{92E9C4B7-2F9D-436B-AE19-5DEA374C479C}" type="presOf" srcId="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" destId="{8696FB2F-B74C-4284-93FD-CADDEAD018DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A33935A8-96B8-4247-A250-919D7F4CC29F}" type="presOf" srcId="{98C958A0-04A1-4F6F-A137-E7AFF5332D2E}" destId="{442ECB07-1145-4ABB-98B9-5777DA12DB5B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3042893A-771E-4B22-80B9-0AC1484E63CE}" type="presOf" srcId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" destId="{88F9CCC8-2B12-43AC-983F-964E61DCB528}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{76ED33F0-9ABA-42E5-B74D-4467390FCF68}" srcId="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" destId="{205659EA-F91B-4619-9414-2599E62E2BA5}" srcOrd="1" destOrd="0" parTransId="{51ED6000-DCD7-4D12-B82C-AAD872229133}" sibTransId="{9B57A6B6-A8EF-47F9-8781-04780CCD25A1}"/>
-    <dgm:cxn modelId="{2B2E1A34-E445-48F8-862A-F5FB301E223A}" type="presOf" srcId="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" destId="{1DF86D04-7972-4C82-85DE-84683C027A28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9C05D3F4-5390-4017-92E4-ABED129C5EF9}" type="presOf" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{02C6B524-D8FC-495D-B3F3-DD87F2B607B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{571A0271-BDF8-45CB-B8F7-14C1EF4AF682}" type="presOf" srcId="{261E041B-3BA4-448C-8C1D-3DC6EF9DEC44}" destId="{B2B65F4D-9EE8-4AF4-AAA0-11BF84EAB3E7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C25E0798-BC71-4B2B-8040-B114CD25998F}" type="presOf" srcId="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" destId="{72B9246D-E7DE-4437-9795-7238B2DAEBCB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FC6E6967-BC93-44F2-9A8C-754D500B5B10}" srcId="{205659EA-F91B-4619-9414-2599E62E2BA5}" destId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" srcOrd="0" destOrd="0" parTransId="{179709A3-AD52-4157-BEA8-42333A15942D}" sibTransId="{1CA63328-E7DE-4F8C-96BC-AEA13426C7DC}"/>
-    <dgm:cxn modelId="{78467615-D2BB-48DC-A94E-62A79EA40A89}" type="presOf" srcId="{5D1284E1-DB5E-42A0-ABB7-A460F1249685}" destId="{D4197FE3-7C68-4EA0-A381-9045A01904C0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8546D336-334B-4A64-BD3E-EF52129FA60A}" type="presOf" srcId="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" destId="{927DFF84-910C-4F85-B42F-F563743B5E13}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7726F7EF-2F58-4943-BC24-B560FF425539}" type="presOf" srcId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" destId="{3D452E87-2559-443E-9433-3995CBCA8C28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6FFFA357-9F4A-435F-A55F-6B8C4E27F9AA}" type="presOf" srcId="{E569CAC8-ACB9-427A-8DAE-22E34880BC5E}" destId="{F374DD8C-BD39-411D-8884-7D5D000B5412}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D6954029-D3EA-4E58-80B9-0C2CC8F67413}" type="presOf" srcId="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" destId="{55D45C88-E238-4890-BC8D-B335EBEAE613}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FFA2BE71-7474-4454-A6DB-9FCDEDF1D6CA}" type="presOf" srcId="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" destId="{5D09497E-8FCB-497A-84C9-34FD127E62C3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7484CA90-8146-4B48-B309-D306B3F70B79}" type="presOf" srcId="{C0CAAB84-DA97-438A-AA59-326891191159}" destId="{704E46B6-9C5B-4BF0-8B2F-AA956B2F6717}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8F8899EC-F553-4D29-8F43-5A8FD653AF7C}" type="presOf" srcId="{231AB027-9786-4CF5-B3F5-D00125516F53}" destId="{CDC76A16-1ABA-4232-988B-3F4D3C15F155}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{55C1BE16-9B34-4492-A68E-03C3FC39B68F}" type="presOf" srcId="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" destId="{6E172DDF-88B6-43F7-8206-C673A88C2D06}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{26116C5E-A490-4D8A-AAFB-8F57FD25E89C}" srcId="{45AB81D0-4942-49FD-9320-063964A3A55A}" destId="{3C6B8DF2-48D8-4023-861C-5C5BD2CD4C3C}" srcOrd="1" destOrd="0" parTransId="{86161FF0-DB75-44B4-B481-37086A5C7D94}" sibTransId="{50EEA0BE-67BA-456D-8F68-33C1E1F67B9F}"/>
-    <dgm:cxn modelId="{ACBA4DF2-F8FF-4200-86C7-3770938BDBFE}" type="presOf" srcId="{86161FF0-DB75-44B4-B481-37086A5C7D94}" destId="{8F3D0191-C403-4316-9539-AA954BE1280A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{20ABC9F6-13EA-4660-8061-5F2ABE7784E3}" srcId="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" destId="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" srcOrd="0" destOrd="0" parTransId="{457AD91D-2021-4B58-821A-44D62CEBE284}" sibTransId="{E2B7CB0D-439F-458C-9004-B03041EDCA66}"/>
-    <dgm:cxn modelId="{6036ED9F-827F-4D54-90B8-B30CE865958F}" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" srcOrd="3" destOrd="0" parTransId="{4538390B-EDBC-415D-ADA9-428328B41C55}" sibTransId="{D5638E7F-0009-4153-ADF0-24C91F0C9CB6}"/>
-    <dgm:cxn modelId="{94C6C239-E566-4F6A-A63C-4AECA1898F2F}" type="presOf" srcId="{85D8D6BF-FF79-4DDD-98C8-3C9CA4291EB5}" destId="{A58F2B6C-7117-4331-AC97-CC25D7002555}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F983D24F-E846-4D45-9E31-57AF3B91A9C7}" srcId="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" destId="{E19740CE-863C-46E0-81FB-29573464BD8E}" srcOrd="0" destOrd="0" parTransId="{15C8A67B-5AB7-4DB7-9FAD-ECEEDBA7FF55}" sibTransId="{34D81FEB-CC5E-48B7-99A9-BF6E3C5E7264}"/>
-    <dgm:cxn modelId="{D5163506-43B3-4D36-B353-4A73DE6E6801}" type="presOf" srcId="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" destId="{A1A4778F-0BBA-4C0E-AFCB-D1779CC6ABB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{93C37F8A-1492-492D-A7CD-F321C936E3F0}" type="presOf" srcId="{1E99BE96-3A99-422E-ADDD-2F20CF5AACB6}" destId="{5A41F4D0-4E55-4096-9869-122E034906D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EDB69EBC-A2B8-4B5B-BD1D-292F74F2BE90}" type="presOf" srcId="{58A54F7C-0E88-4970-BF83-7937347376DA}" destId="{51835B02-970D-4055-B944-949ECAB59213}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BF3F0199-EBEB-43D7-A0DA-6E6479868103}" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{FC0E27DB-D0E7-495F-9041-593C61C4C734}" srcOrd="2" destOrd="0" parTransId="{27B2DCF1-CB4A-4E28-A830-AA7E2DBB34F5}" sibTransId="{6CE669EA-AF7E-43B1-8E46-871D570947D5}"/>
-    <dgm:cxn modelId="{B03BAB34-8638-455C-B21F-1F6674429D88}" type="presOf" srcId="{3B605381-41D1-45DE-B099-DCF2360AC723}" destId="{40D07927-79AC-4C9F-AC74-95D7DC0AFB16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{34C8FDE4-3335-4CFE-91BD-3F898AB8B305}" type="presOf" srcId="{E19740CE-863C-46E0-81FB-29573464BD8E}" destId="{382D6AB1-9752-497F-A581-EC9FCE971620}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{568A3F64-F208-42FC-95DA-1DF1FC44CCBF}" type="presOf" srcId="{9E2E6255-E15A-47D5-ABB9-E299E9AFCFBE}" destId="{B440F889-F3DB-4D8A-8934-5680DA0624D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A694076B-CFE1-488C-9FB4-47055AF5789B}" type="presOf" srcId="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" destId="{46BD2673-67D5-446C-9A9D-4E33FB311094}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0AAE102A-6B85-4DB4-86E0-692BEB6E5093}" srcId="{53CD3394-856B-4A54-B0F4-01E272E47A39}" destId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" srcOrd="1" destOrd="0" parTransId="{C8A5F967-33A1-43F2-A587-C685472EC28A}" sibTransId="{46292B57-E636-4E46-BFC9-A2BAC884DF1B}"/>
-    <dgm:cxn modelId="{B0F69F58-02E5-4F5A-9974-D4256291E813}" srcId="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" destId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" srcOrd="0" destOrd="0" parTransId="{93FF5A89-F786-4F80-85AE-6C204538665B}" sibTransId="{DE0A3B6F-3BC5-41FE-8D97-AEF4D88C871D}"/>
-    <dgm:cxn modelId="{B76F4690-2295-49B0-AC68-876C506986D7}" type="presOf" srcId="{45AB81D0-4942-49FD-9320-063964A3A55A}" destId="{39F5929B-9743-4646-85A6-63799662CF4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EF224AFF-ACF0-4C3D-8192-A50612484F9D}" srcId="{45AB81D0-4942-49FD-9320-063964A3A55A}" destId="{CD4321E6-ECF3-4190-89EE-4DFCA73073C9}" srcOrd="0" destOrd="0" parTransId="{F915F4CA-CB41-435B-A83A-D89F156B44D0}" sibTransId="{6985891D-40A6-4F46-BCEC-7FDC5EF7E9EC}"/>
-    <dgm:cxn modelId="{788706E3-9E11-46DC-A7EB-ED36A349EBB1}" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" srcOrd="1" destOrd="0" parTransId="{D293981D-C319-45AD-A9A4-8FFA3D71CE84}" sibTransId="{D22DC8F7-1649-4EBE-AE9A-2C82FD63F71D}"/>
-    <dgm:cxn modelId="{E384DA90-EF40-4E45-B3B6-450916B77031}" type="presOf" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{DA8F9D03-B5B3-49F9-AEEF-C2E546A8C7A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F8F2CFA6-92CE-405C-B80A-AFA06D459F69}" type="presOf" srcId="{51ED6000-DCD7-4D12-B82C-AAD872229133}" destId="{035D330F-8E26-4555-B18E-3EA31829BD15}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E6D22409-0AD0-4BE7-87D8-B45B6985F87F}" type="presOf" srcId="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" destId="{603B877B-343F-4384-B81E-A743DDE75595}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B56E3484-DB3B-40A2-9947-74D15832D9B1}" type="presOf" srcId="{F6230248-9A22-4714-A606-FF4E27A8853D}" destId="{4DD5575A-A70E-4351-A842-5DFC53B4D3F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{17C69530-A230-41AE-B017-5685B64C2E0E}" type="presOf" srcId="{9799EC60-D3F1-4C1D-8896-54318B7167F1}" destId="{8BD74B98-4F93-477B-869F-D8A12B7BAF2F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A5D3E585-9272-42B6-B03D-EAE3D07A7E02}" type="presOf" srcId="{C8A5F967-33A1-43F2-A587-C685472EC28A}" destId="{46DAEBF6-0A5C-43AE-B9F7-DE231E995B1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B1A51F3C-4342-412F-9969-ABD67C8438BB}" type="presOf" srcId="{179709A3-AD52-4157-BEA8-42333A15942D}" destId="{1713D8DE-AF42-4A62-9BFB-FA22A93B4B22}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{49D066EB-363F-4125-B0D6-B9AA1F207090}" type="presOf" srcId="{1E99BE96-3A99-422E-ADDD-2F20CF5AACB6}" destId="{799172A6-4551-45E0-BD51-FA11B73798A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{31BA0465-4105-4862-BEA9-711E66F261E5}" type="presOf" srcId="{93FF5A89-F786-4F80-85AE-6C204538665B}" destId="{C37D4FBA-EF1F-44B0-855C-3B564A6A48FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{43A53415-B280-4E96-A8CF-909938714695}" srcId="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" destId="{0BC8794A-73E5-4912-BC21-FB7E30BB40A1}" srcOrd="0" destOrd="0" parTransId="{F5360B58-A336-4E36-B5CF-089FF0AF7013}" sibTransId="{45C6095E-3298-4CB3-B19A-0E6E8B5ACC2D}"/>
-    <dgm:cxn modelId="{18F9AC2B-4F01-4DD1-945A-BBC806148EB8}" type="presOf" srcId="{53CD3394-856B-4A54-B0F4-01E272E47A39}" destId="{092D19DD-7BA6-4B64-9E4E-B1D540429B26}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3694F4DF-6CC3-492C-8012-33DF431AE50C}" type="presOf" srcId="{AF98AC07-83EA-4682-BD69-A7C5011F59F5}" destId="{5E4811F8-319E-49AA-822D-42E50E9427F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5327E978-843A-4D0A-9E79-0345B6011D63}" type="presOf" srcId="{27B2DCF1-CB4A-4E28-A830-AA7E2DBB34F5}" destId="{481093D2-35B1-4F63-B4DA-9EFD4CF11BA2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{26E4AFA9-D001-449E-B1AD-904295BFD425}" type="presOf" srcId="{8B7A6C34-E5DC-4136-853E-B5C6B07E661F}" destId="{D9AD0D1A-E917-4FEC-84F3-7545C3E11398}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3D96BD48-FFC0-4539-949E-A2CD3CC6B879}" type="presOf" srcId="{3D387E21-D664-40EC-B2E5-C7BE39BA0204}" destId="{A7021507-15C2-4974-82F8-E8F19B8A460B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7EE43C49-4E12-4D17-A8DC-FADFF39407D2}" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{F0A51A5D-8EAB-442D-9F2E-56696CEF07B2}" srcOrd="2" destOrd="0" parTransId="{98C958A0-04A1-4F6F-A137-E7AFF5332D2E}" sibTransId="{0BEE42E8-5B85-4C62-BD07-E14C90456320}"/>
-    <dgm:cxn modelId="{04004558-D73F-4393-9D14-8C574897A930}" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{C0CAAB84-DA97-438A-AA59-326891191159}" srcOrd="0" destOrd="0" parTransId="{3B605381-41D1-45DE-B099-DCF2360AC723}" sibTransId="{8E932EF0-90F3-4084-AD5D-732A9CEF3DA9}"/>
-    <dgm:cxn modelId="{406AF062-D5D4-442F-8FC6-5129A5404B09}" srcId="{9AE1FA16-28C6-4247-A422-6FAB52E8F81B}" destId="{4E38BCBF-E9BF-468F-B5FE-F8F997687410}" srcOrd="1" destOrd="0" parTransId="{9799EC60-D3F1-4C1D-8896-54318B7167F1}" sibTransId="{E8379CE3-0CD7-4507-BC75-92F7FC92251C}"/>
-    <dgm:cxn modelId="{0BC2F401-44E1-454A-902B-21ED8879DA2F}" type="presOf" srcId="{F915F4CA-CB41-435B-A83A-D89F156B44D0}" destId="{31029E5D-38F0-4445-AD80-D53D3829D0D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{83542096-EC30-43E0-BE98-79CF0C142CE2}" srcId="{E19740CE-863C-46E0-81FB-29573464BD8E}" destId="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" srcOrd="0" destOrd="0" parTransId="{E569CAC8-ACB9-427A-8DAE-22E34880BC5E}" sibTransId="{29E689E7-E13F-4647-A761-F6DC50E025ED}"/>
-    <dgm:cxn modelId="{0DFBA10E-9E45-45BD-883A-DF3BAD1C3CF7}" srcId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" destId="{091740D7-C235-4DA6-9F6F-E6070C38189A}" srcOrd="2" destOrd="0" parTransId="{3D7C57FA-8791-4FCE-8829-A303F4492878}" sibTransId="{ACBA3CC4-645A-49D2-B1C3-D5D1CACD0A2F}"/>
-    <dgm:cxn modelId="{F1845136-6949-4FD9-A721-CA9F24098F3D}" type="presOf" srcId="{406A3D5D-0B4A-40C4-962A-6510D7C09688}" destId="{04E06FC5-75F9-41F5-B96D-A2BA541EFC55}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A68EC072-F4EC-4E40-9D3E-0ED5B894C134}" type="presOf" srcId="{D293981D-C319-45AD-A9A4-8FFA3D71CE84}" destId="{8D4D2CA9-ECD4-493D-BDF7-E85363F5DD67}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{45EDABCC-3EE8-4DCB-89CF-1149402DB239}" type="presOf" srcId="{091740D7-C235-4DA6-9F6F-E6070C38189A}" destId="{CDBD0B08-2B12-4AF3-BFDC-AF29F28EC0D1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{658E028F-FB40-4A0B-88F1-4B265768A6FE}" type="presOf" srcId="{44D94D77-B8B6-4406-A9B8-FF9BD030A63C}" destId="{C284C33E-B694-4F6E-BC44-5ECB5EB9AB60}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C2202195-E345-4C88-879D-275FAD390F38}" srcId="{1E99BE96-3A99-422E-ADDD-2F20CF5AACB6}" destId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" srcOrd="0" destOrd="0" parTransId="{52092067-E9BC-4487-B807-5EEFF200F53E}" sibTransId="{95D93097-E2EB-4E7D-B1F9-E39BCE63B053}"/>
-    <dgm:cxn modelId="{8362A9BB-A0E7-4DC8-9C32-A16C07BB4419}" type="presOf" srcId="{74CBAFDB-F954-4B13-A2A1-E376B251D37F}" destId="{1ABD0C0D-2167-4E5E-9426-B401594EE7B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5F161A81-C3BB-4489-B714-3E2EEB138641}" type="presOf" srcId="{41CACA58-8D73-47AA-8503-8A2B2EF4B101}" destId="{6700433B-7E45-4267-AA10-ABA43A4ED20C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{94B170C4-FD67-4F17-85C9-BB967AECF684}" type="presOf" srcId="{C0CAAB84-DA97-438A-AA59-326891191159}" destId="{FC48BD82-19EB-4536-A8E5-9192F66DE36A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C3677543-BC38-449C-8F3D-660C4404BCBE}" type="presOf" srcId="{58A54F7C-0E88-4970-BF83-7937347376DA}" destId="{8BBBCD07-06BC-49E3-8417-1B81A74C9CA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{44C90815-CD1B-4F8A-A385-440347FDFF85}" type="presOf" srcId="{73E4700B-1EA4-44CD-9022-D2AA0606EF61}" destId="{FBC79CCD-8433-44C4-BDA4-24CA8CE015F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3F501E26-2161-499E-8621-701F9DBAB916}" srcId="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" destId="{DC101EF4-1190-4EF2-BBCF-A007BF4E151B}" srcOrd="0" destOrd="0" parTransId="{261E041B-3BA4-448C-8C1D-3DC6EF9DEC44}" sibTransId="{474AA97E-5010-452A-B18F-7AD6881CDF77}"/>
-    <dgm:cxn modelId="{545CC941-4E59-4E7B-AE1D-1B15BC054931}" type="presOf" srcId="{205659EA-F91B-4619-9414-2599E62E2BA5}" destId="{83615EF6-7F8E-4C5A-B680-A4B87BCDC8AE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{065B6FA8-4D92-40A5-B3D0-F5CC203F65DB}" srcId="{1C5BC2B2-3CE1-40C4-8DFB-B107CF9DBC0C}" destId="{E5C1BD12-5A0A-46AC-84D0-A2EFD094C304}" srcOrd="0" destOrd="0" parTransId="{AF98AC07-83EA-4682-BD69-A7C5011F59F5}" sibTransId="{788A933F-EAA8-41E1-B1FE-DED9948F0676}"/>
-    <dgm:cxn modelId="{7F134746-7F40-451E-AE7E-D21F141FAB0E}" srcId="{BED0678B-84D2-441B-BDDE-5CE4DC8EA2B5}" destId="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" srcOrd="2" destOrd="0" parTransId="{9520FC2D-6CD5-4388-BE91-AA6F78B05136}" sibTransId="{74BDEEC1-51B0-4E29-B65B-D0A88878C5B1}"/>
-    <dgm:cxn modelId="{78175B39-BF0E-4D9D-9F6E-6517B405D792}" type="presOf" srcId="{BBBA6B02-5F80-4409-91BB-B85116CC542A}" destId="{59A62163-7996-45D8-982B-C03ED1A0B491}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D0F1C040-F24E-4FB2-A046-E79345E79C87}" srcId="{58A54F7C-0E88-4970-BF83-7937347376DA}" destId="{1E99BE96-3A99-422E-ADDD-2F20CF5AACB6}" srcOrd="0" destOrd="0" parTransId="{6D5907EA-7A56-4CEB-BDD4-1089149D7152}" sibTransId="{75875A0A-3192-4639-9587-409920482D59}"/>
-    <dgm:cxn modelId="{74671BEB-3454-4073-BF52-2C3E32C89844}" type="presOf" srcId="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" destId="{A0924645-04A3-40BB-8B76-40C1983BEFBD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1D826F38-B15F-4E40-98FD-3750F2A5A301}" type="presOf" srcId="{F6230248-9A22-4714-A606-FF4E27A8853D}" destId="{DFD166F7-29ED-4BF3-B6EA-EF547E469607}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{04B1631C-309E-4522-9350-1C7DD8141CEA}" type="presOf" srcId="{CD3E5EC0-0731-431E-8757-06CF707694F1}" destId="{26F22A2A-8CC6-4F36-8B51-83033FA5AEF5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1D9D5A0C-1722-47BC-AB1F-0B91F5509288}" srcId="{F88077EB-187C-4BE7-B4AB-90D58B45D96A}" destId="{B37F3F58-2804-49E7-8CFB-0A6C21735A32}" srcOrd="0" destOrd="0" parTransId="{13E88B0D-94B7-44F5-86FF-C7DC7C96907D}" sibTransId="{330F6EB8-2C9C-4A25-AF5B-484711842526}"/>
-    <dgm:cxn modelId="{8BCD83E9-43C1-4455-AD2C-FF508D95D17D}" type="presOf" srcId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" destId="{83824BC3-69C6-471D-8653-29FFCA69FAD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{06B0580E-3CB4-42C1-93BB-9F75062882A6}" type="presOf" srcId="{6761AFAD-18E2-4B13-A63B-9EF7210E6E36}" destId="{0203E005-081B-4C10-ACD8-1AC7794EC88E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{242BFFFA-00A3-4B61-ACB3-A54C310C7AC8}" srcId="{C044B0B3-C87C-4F3C-A5AA-AEC786D79D4C}" destId="{45AB81D0-4942-49FD-9320-063964A3A55A}" srcOrd="1" destOrd="0" parTransId="{73E4700B-1EA4-44CD-9022-D2AA0606EF61}" sibTransId="{43297B59-FE43-4F23-A9FB-2D86885C8237}"/>
     <dgm:cxn modelId="{5DFE1968-9A89-4130-B0FB-C780CC960160}" type="presParOf" srcId="{18D22F45-37B1-4CDA-B584-95E95D3BAEA6}" destId="{DDDDDCF4-F9D6-4E03-9D6A-A2C8E8C70E33}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4F35F677-27F5-4EE9-9B26-2289CE5E100E}" type="presParOf" srcId="{DDDDDCF4-F9D6-4E03-9D6A-A2C8E8C70E33}" destId="{0D8C98A2-02A5-4B07-A7A3-E35A4439112F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A245492F-D97B-4A05-8706-2A7B0E7D0585}" type="presParOf" srcId="{0D8C98A2-02A5-4B07-A7A3-E35A4439112F}" destId="{8BBBCD07-06BC-49E3-8417-1B81A74C9CA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3925,195 +3442,146 @@
     <dgm:cxn modelId="{F054CE92-2538-4878-BAE7-CD99124CD237}" type="presParOf" srcId="{0184E793-B917-45FA-8D9B-109BBE2A3653}" destId="{6E172DDF-88B6-43F7-8206-C673A88C2D06}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{EC1CD8BC-3A95-4D6A-8BB1-E57EF8DCF9C1}" type="presParOf" srcId="{0184E793-B917-45FA-8D9B-109BBE2A3653}" destId="{CC3318FF-CB9E-4673-810C-95009695D84C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8C303508-99E5-43A0-958E-82F6ADA1B397}" type="presParOf" srcId="{D60C5391-76AA-484B-9DF9-77EE03416913}" destId="{209D2ACB-7EA6-4639-A4FE-A44E2F781B58}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9DF885D4-FB11-4224-9B1B-C2EF25047A08}" type="presParOf" srcId="{209D2ACB-7EA6-4639-A4FE-A44E2F781B58}" destId="{1EADF556-E115-4146-8827-100B4A4D9461}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{83D7EA50-91DA-484D-A6FD-E4ED150B200A}" type="presParOf" srcId="{209D2ACB-7EA6-4639-A4FE-A44E2F781B58}" destId="{5D26EBE7-8C18-4767-AB48-EA7294E3C955}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B98968F3-E04B-4DE6-A7D4-847435A33101}" type="presParOf" srcId="{5D26EBE7-8C18-4767-AB48-EA7294E3C955}" destId="{47CEB7A3-D31B-455E-BD5F-D566899E1A0C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8DEB6E63-D4E4-4695-8462-2BA1017DFF10}" type="presParOf" srcId="{47CEB7A3-D31B-455E-BD5F-D566899E1A0C}" destId="{61D04746-DD26-4AC2-9045-FD7B63B70FA6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{514D4B66-E8DD-476C-86EE-E37B48B7D379}" type="presParOf" srcId="{47CEB7A3-D31B-455E-BD5F-D566899E1A0C}" destId="{D582A622-F082-4FFA-90A4-10FCC5EBBA1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C1A29D70-DFFF-49DD-A7F3-6709660DEDFD}" type="presParOf" srcId="{5D26EBE7-8C18-4767-AB48-EA7294E3C955}" destId="{32A6EC2F-E3E5-4156-B61A-AB209CF4A779}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CA4B7268-EA64-4D23-BC34-9AEFE4E75CAD}" type="presParOf" srcId="{32A6EC2F-E3E5-4156-B61A-AB209CF4A779}" destId="{B28C6FC9-0E36-4800-848D-558D3659DF83}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6BCE69B2-8D9B-4F70-AA71-A68F750377A9}" type="presParOf" srcId="{32A6EC2F-E3E5-4156-B61A-AB209CF4A779}" destId="{04BAF2B3-EA34-4CFA-BC96-33F0892F8B30}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{171C4A56-DEFD-4FA8-B9FD-DB9669630E2D}" type="presParOf" srcId="{04BAF2B3-EA34-4CFA-BC96-33F0892F8B30}" destId="{55017A46-1702-401F-B6F7-29F386BC00B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{895E1521-9A92-4759-AF14-C1B21F83D8DF}" type="presParOf" srcId="{55017A46-1702-401F-B6F7-29F386BC00B9}" destId="{382D6AB1-9752-497F-A581-EC9FCE971620}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{46044791-F7C3-42FF-BF0B-865931653D56}" type="presParOf" srcId="{55017A46-1702-401F-B6F7-29F386BC00B9}" destId="{BFDBAFCF-10EB-4F26-91BC-8798F7E93322}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9E440210-EE56-44BD-B2D4-6EE7913AC3B7}" type="presParOf" srcId="{04BAF2B3-EA34-4CFA-BC96-33F0892F8B30}" destId="{919737D8-B049-425B-BC87-8182297669A0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8B4A7A07-381F-4101-A42C-54FF23FBFD38}" type="presParOf" srcId="{919737D8-B049-425B-BC87-8182297669A0}" destId="{F374DD8C-BD39-411D-8884-7D5D000B5412}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E2129E4D-CA6D-4824-AEA5-DCEE88CE34CE}" type="presParOf" srcId="{919737D8-B049-425B-BC87-8182297669A0}" destId="{3C000F9C-86BB-4FC4-9602-1F3E1CA5CEA0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CDFB4D26-274A-4E00-8128-3DD391ECD0BF}" type="presParOf" srcId="{3C000F9C-86BB-4FC4-9602-1F3E1CA5CEA0}" destId="{61FCDD69-8D82-424D-A1BC-FB0188E5B4F0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E9722EFD-EA41-41E3-85E8-B67872F4565A}" type="presParOf" srcId="{61FCDD69-8D82-424D-A1BC-FB0188E5B4F0}" destId="{89C6EE15-7404-4350-A4E2-E01D99D25F07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{498EE4C6-C6FD-42B4-80D4-26355BBE38A9}" type="presParOf" srcId="{61FCDD69-8D82-424D-A1BC-FB0188E5B4F0}" destId="{C284C33E-B694-4F6E-BC44-5ECB5EB9AB60}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{598389F8-827D-49D2-ACEE-6A3F6BBE9632}" type="presParOf" srcId="{3C000F9C-86BB-4FC4-9602-1F3E1CA5CEA0}" destId="{66587BC4-7028-4839-B234-489BD50247E8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ED807D86-D810-463D-B808-B66D90E6A7BC}" type="presParOf" srcId="{3C000F9C-86BB-4FC4-9602-1F3E1CA5CEA0}" destId="{C23D43BB-67C9-4E97-8E71-FA923546B0B6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5C0CF57A-9C8E-4919-BEFB-15C7F5D2AA7F}" type="presParOf" srcId="{C23D43BB-67C9-4E97-8E71-FA923546B0B6}" destId="{8F2BAA84-1091-4A24-AD29-B4B8AAD7C52A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{66CC074A-5953-48D7-B719-CCC377414BB9}" type="presParOf" srcId="{C23D43BB-67C9-4E97-8E71-FA923546B0B6}" destId="{BAAA8FF5-4A98-41FF-82F1-0006611CF7BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{03B7A352-8069-48DC-97D2-33F57BDE0C1D}" type="presParOf" srcId="{BAAA8FF5-4A98-41FF-82F1-0006611CF7BA}" destId="{B8ED3997-FCCC-4BD1-A461-EA1B5EE38B86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{627FD2E3-3B5B-4E60-807B-1A71966502E0}" type="presParOf" srcId="{B8ED3997-FCCC-4BD1-A461-EA1B5EE38B86}" destId="{F0559929-F662-46DA-BF2D-295B2BE10601}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{57DF0932-17BA-476F-B194-FD01414E8C35}" type="presParOf" srcId="{B8ED3997-FCCC-4BD1-A461-EA1B5EE38B86}" destId="{46BD2673-67D5-446C-9A9D-4E33FB311094}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{489702DF-3A82-4A9B-ACA5-C6CE47B3AD45}" type="presParOf" srcId="{BAAA8FF5-4A98-41FF-82F1-0006611CF7BA}" destId="{D14A63D2-7EA6-42C9-8DF5-1496EB0D73B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{93938983-2C29-46C0-AD71-FE41A7F35B58}" type="presParOf" srcId="{BAAA8FF5-4A98-41FF-82F1-0006611CF7BA}" destId="{73447775-200A-4CD7-995E-8BBEF00B3D45}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{592A8629-4E3B-4AF8-A826-A83B3310DCCF}" type="presParOf" srcId="{04BAF2B3-EA34-4CFA-BC96-33F0892F8B30}" destId="{0DA61C04-D6C2-4D1E-A410-8E39C1EB90FB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{80E88525-B7F7-46CA-9219-7A34F0D73F64}" type="presParOf" srcId="{32A6EC2F-E3E5-4156-B61A-AB209CF4A779}" destId="{035D330F-8E26-4555-B18E-3EA31829BD15}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{78F83594-6D05-4E13-ACC1-678F6C31722A}" type="presParOf" srcId="{32A6EC2F-E3E5-4156-B61A-AB209CF4A779}" destId="{28E31BB8-3141-4EB7-B2EE-C1A44DAFD2AA}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{65F2EE35-5C1D-4272-BAFE-AE58565A3E17}" type="presParOf" srcId="{28E31BB8-3141-4EB7-B2EE-C1A44DAFD2AA}" destId="{1CC2EDA0-DA58-4426-A67A-D1A5F116C42A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8679E41C-3CC4-4367-A7F4-4D750B3B8FBB}" type="presParOf" srcId="{1CC2EDA0-DA58-4426-A67A-D1A5F116C42A}" destId="{2555DBA0-9B5C-49EE-817E-B609FE182F55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5ECAFB4F-CF1E-4142-9519-154F88161323}" type="presParOf" srcId="{1CC2EDA0-DA58-4426-A67A-D1A5F116C42A}" destId="{83615EF6-7F8E-4C5A-B680-A4B87BCDC8AE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E71CE8E2-A10C-43A7-B230-2FF9D0524F3E}" type="presParOf" srcId="{28E31BB8-3141-4EB7-B2EE-C1A44DAFD2AA}" destId="{C0FFA1E2-03A0-44D3-8CC3-F8FEB9121353}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ED1F4C19-92EB-46D8-80C8-6D68CE9D78D7}" type="presParOf" srcId="{C0FFA1E2-03A0-44D3-8CC3-F8FEB9121353}" destId="{1713D8DE-AF42-4A62-9BFB-FA22A93B4B22}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{33F22609-D744-494F-A07A-62266E3335E0}" type="presParOf" srcId="{C0FFA1E2-03A0-44D3-8CC3-F8FEB9121353}" destId="{E7E45AAC-2F7A-45E1-B818-0E5201A8E17A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F5A45A7-12B1-4907-918F-C0BA543B749C}" type="presParOf" srcId="{E7E45AAC-2F7A-45E1-B818-0E5201A8E17A}" destId="{2962F395-ED6A-418B-9BBD-B7C800DCDC5E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DB152375-44F1-4BB3-86A8-914AA516BDC3}" type="presParOf" srcId="{2962F395-ED6A-418B-9BBD-B7C800DCDC5E}" destId="{EC47C248-2C2E-4C81-881E-A4378E48247D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EDCC0667-A563-4879-9B4D-45D4ABE9840C}" type="presParOf" srcId="{2962F395-ED6A-418B-9BBD-B7C800DCDC5E}" destId="{83824BC3-69C6-471D-8653-29FFCA69FAD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B06DB13B-6410-4B6D-A3A3-E6BC07C979F6}" type="presParOf" srcId="{E7E45AAC-2F7A-45E1-B818-0E5201A8E17A}" destId="{0749DB12-644D-4E9F-9278-550F25287FC5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{984DEA7F-17B3-4F9E-9C2C-E74780C5B449}" type="presParOf" srcId="{0749DB12-644D-4E9F-9278-550F25287FC5}" destId="{A7021507-15C2-4974-82F8-E8F19B8A460B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B9B166E1-5089-487F-B7A8-41EED134EB94}" type="presParOf" srcId="{0749DB12-644D-4E9F-9278-550F25287FC5}" destId="{2B89ED18-34E0-4E9D-9E6F-007ED978C7EF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C74FBCC2-1657-4654-9808-684DAE6AA796}" type="presParOf" srcId="{2B89ED18-34E0-4E9D-9E6F-007ED978C7EF}" destId="{8731726D-B094-4FAF-98DB-BBD3F4503903}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B3D93CB6-F05E-474E-83B0-F72DE95E2124}" type="presParOf" srcId="{8731726D-B094-4FAF-98DB-BBD3F4503903}" destId="{D4197FE3-7C68-4EA0-A381-9045A01904C0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A766CBEB-FF6A-4E46-A6E0-69CC47B63B93}" type="presParOf" srcId="{8731726D-B094-4FAF-98DB-BBD3F4503903}" destId="{09AE2075-226C-4D6D-AB4A-51AA4E24709D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0328922B-2C90-42F5-90C8-A505B9065976}" type="presParOf" srcId="{2B89ED18-34E0-4E9D-9E6F-007ED978C7EF}" destId="{E61A3DB8-76F5-4F52-BA04-BAFD1391288C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{050A2195-FF26-4F56-AB8C-5CD4B7E021A6}" type="presParOf" srcId="{2B89ED18-34E0-4E9D-9E6F-007ED978C7EF}" destId="{CA15A0AF-369E-4E4B-A641-3D2BAE9F6BE8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3BF96EDA-7EF5-47C6-BEE9-080FE68C7C3A}" type="presParOf" srcId="{0749DB12-644D-4E9F-9278-550F25287FC5}" destId="{FBC79CCD-8433-44C4-BDA4-24CA8CE015F5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{46A80658-6616-4332-A503-CCDE30D4A6C2}" type="presParOf" srcId="{0749DB12-644D-4E9F-9278-550F25287FC5}" destId="{2F22F17E-F4F8-4F36-A108-643DEF33F0F2}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{45863138-2590-4093-8658-EFA2E4BF1EDD}" type="presParOf" srcId="{2F22F17E-F4F8-4F36-A108-643DEF33F0F2}" destId="{1AAB63E2-8DC6-4DF1-818F-43B5F63218A2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B8E02DDE-9282-4EDE-885B-06728EBDE057}" type="presParOf" srcId="{1AAB63E2-8DC6-4DF1-818F-43B5F63218A2}" destId="{5707B9E7-4EC4-48F3-B5B7-C0F4AD71878C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7BC5F3B6-BD68-4D91-9E91-3CC50E797574}" type="presParOf" srcId="{1AAB63E2-8DC6-4DF1-818F-43B5F63218A2}" destId="{39F5929B-9743-4646-85A6-63799662CF4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3C49E037-9872-4B92-B7A5-E14E409D3DE0}" type="presParOf" srcId="{2F22F17E-F4F8-4F36-A108-643DEF33F0F2}" destId="{CA0BCD1B-D3A2-4CAD-8555-3DA68EE2EF53}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{244D0849-AFE9-4AA1-B5F7-F4B0BEA3A657}" type="presParOf" srcId="{CA0BCD1B-D3A2-4CAD-8555-3DA68EE2EF53}" destId="{31029E5D-38F0-4445-AD80-D53D3829D0D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0F5DFA95-F34E-4BEB-B12E-24FDDFB4F708}" type="presParOf" srcId="{CA0BCD1B-D3A2-4CAD-8555-3DA68EE2EF53}" destId="{8D1A72EB-9880-475E-8A28-BF2B0B401B60}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{289B89B6-7B7C-4C56-BB51-A77764F8131E}" type="presParOf" srcId="{8D1A72EB-9880-475E-8A28-BF2B0B401B60}" destId="{C3635134-BE99-4EAA-96E9-E31A897BB487}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D7F428B3-20B2-416C-B957-E4B053E0532E}" type="presParOf" srcId="{C3635134-BE99-4EAA-96E9-E31A897BB487}" destId="{C5AC313F-9E85-4FED-9162-78CA68DCB05A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{554B99BE-CE1D-45A1-A84E-7485616886AF}" type="presParOf" srcId="{C3635134-BE99-4EAA-96E9-E31A897BB487}" destId="{360F100E-2821-4F68-BF6E-F50D9696266B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2CBFC2F9-3AF2-4D2B-992A-F7DB41B91CAD}" type="presParOf" srcId="{8D1A72EB-9880-475E-8A28-BF2B0B401B60}" destId="{4F443EB9-C790-4D6B-A657-54FA4FB9026F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F8109D41-6420-4DA8-83A6-4377CE2A31C3}" type="presParOf" srcId="{4F443EB9-C790-4D6B-A657-54FA4FB9026F}" destId="{1ABD0C0D-2167-4E5E-9426-B401594EE7B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AC958320-D0ED-4184-B275-A2A4E421D4EC}" type="presParOf" srcId="{4F443EB9-C790-4D6B-A657-54FA4FB9026F}" destId="{4E93FCBF-1581-4FE4-B9C1-D749E53062D9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{10C1770F-2B62-402B-B4B5-C9DE8E26CBA1}" type="presParOf" srcId="{4E93FCBF-1581-4FE4-B9C1-D749E53062D9}" destId="{8FB8C1D1-90AE-4F2B-AD63-11D32EF89F3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4615266F-67EB-40B3-A69F-207FD2BF0220}" type="presParOf" srcId="{8FB8C1D1-90AE-4F2B-AD63-11D32EF89F3E}" destId="{092D19DD-7BA6-4B64-9E4E-B1D540429B26}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F5E27C38-9BBE-47EA-8FA6-28C659244A3A}" type="presParOf" srcId="{8FB8C1D1-90AE-4F2B-AD63-11D32EF89F3E}" destId="{B394C574-A5E7-4981-B328-6335554E598B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0AF40FA8-7E72-4F41-A81A-14D1780C8CE5}" type="presParOf" srcId="{4E93FCBF-1581-4FE4-B9C1-D749E53062D9}" destId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{35B8657B-59DF-4BED-898F-71247EBEDF20}" type="presParOf" srcId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" destId="{B440F889-F3DB-4D8A-8934-5680DA0624D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8C10F973-DA40-46BE-ABEC-E24FC6483B82}" type="presParOf" srcId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" destId="{E9AC2B24-D4F3-43A0-B282-CDC6596FB425}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{93502F01-BB4E-4DAA-AE20-4C10A239DDD0}" type="presParOf" srcId="{E9AC2B24-D4F3-43A0-B282-CDC6596FB425}" destId="{81F71451-C6F5-43DC-B931-ABED9B1FA5A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9686C2D2-597B-4D60-A6DE-350E65D8157D}" type="presParOf" srcId="{81F71451-C6F5-43DC-B931-ABED9B1FA5A6}" destId="{02C6B524-D8FC-495D-B3F3-DD87F2B607B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2E89FBB5-A39F-4E64-9B7D-1632BE34F2AD}" type="presParOf" srcId="{81F71451-C6F5-43DC-B931-ABED9B1FA5A6}" destId="{844F720F-8888-41D5-9C8A-8E8313B26C01}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{00BA8E4E-AA0B-451E-8BC1-F5FFD93C3D19}" type="presParOf" srcId="{E9AC2B24-D4F3-43A0-B282-CDC6596FB425}" destId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C54E377E-5858-423E-9C91-5AAACC7A9C6A}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{F1C115F3-7689-4248-8F15-5ADB4A5E41E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B5C46B22-55C7-4DB7-98E8-5E92A80044FF}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{262263AC-FA51-4228-AA1A-2144A31DA57F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8E2C1071-EBD9-4325-836E-DB084839E61C}" type="presParOf" srcId="{262263AC-FA51-4228-AA1A-2144A31DA57F}" destId="{CE8E273D-F222-4318-A7C7-49EE7A0A4F30}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A8DD732F-C283-41E2-8395-FEDDF308A200}" type="presParOf" srcId="{CE8E273D-F222-4318-A7C7-49EE7A0A4F30}" destId="{603B877B-343F-4384-B81E-A743DDE75595}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6680C3F6-6C09-41FC-B688-7516C0256D32}" type="presParOf" srcId="{CE8E273D-F222-4318-A7C7-49EE7A0A4F30}" destId="{A0924645-04A3-40BB-8B76-40C1983BEFBD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C9E01EBD-6774-4595-A32D-16A359044715}" type="presParOf" srcId="{262263AC-FA51-4228-AA1A-2144A31DA57F}" destId="{02FBEF6F-8F15-45BC-BFB8-3BE6A8D6F680}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{14659653-7FF6-4379-8830-516789A7ADFB}" type="presParOf" srcId="{02FBEF6F-8F15-45BC-BFB8-3BE6A8D6F680}" destId="{B2B65F4D-9EE8-4AF4-AAA0-11BF84EAB3E7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6AE40E74-E4BE-4D07-8762-D6C6D5939BD5}" type="presParOf" srcId="{02FBEF6F-8F15-45BC-BFB8-3BE6A8D6F680}" destId="{668D953E-5B9D-4A7F-8B2B-535354FCC667}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7C6C7CDE-BA0C-4F11-9686-49164053FD0F}" type="presParOf" srcId="{668D953E-5B9D-4A7F-8B2B-535354FCC667}" destId="{9A06BA02-92B5-478E-828B-A2BD6AB0DFD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{433021D3-7634-4F1B-AF28-B3BB731BDABE}" type="presParOf" srcId="{9A06BA02-92B5-478E-828B-A2BD6AB0DFD9}" destId="{CA6C17FE-417B-4355-BBDC-45A7403EE4A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5C47CB0E-18E7-41C7-9190-6D199BC0F3F9}" type="presParOf" srcId="{9A06BA02-92B5-478E-828B-A2BD6AB0DFD9}" destId="{1D3F302F-C8DC-4950-9F70-A879CFA08C76}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{572D1DE0-FB72-4E2E-AC44-2AEB3B4C73F7}" type="presParOf" srcId="{668D953E-5B9D-4A7F-8B2B-535354FCC667}" destId="{83F067F6-DF1A-4A3B-A241-1007820AD083}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E69ACAF1-6D6E-414A-950A-DF3460895AD4}" type="presParOf" srcId="{668D953E-5B9D-4A7F-8B2B-535354FCC667}" destId="{84AAE31D-044B-49F8-878A-282CC8B8F646}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6168CEEF-E287-48F5-8A86-51F07DEAD399}" type="presParOf" srcId="{262263AC-FA51-4228-AA1A-2144A31DA57F}" destId="{EB8454C7-6B2B-48B5-AF2E-F7A48590A862}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6932C33F-B247-49E9-A439-DCD609FAB6A5}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{8D4D2CA9-ECD4-493D-BDF7-E85363F5DD67}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{23A94332-CB68-49AD-AA7B-FE8D1B8B5DA4}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{9D9E371C-686D-4054-A731-80938E9C030A}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8163B5C2-1CAA-4DDC-93E3-063032249E32}" type="presParOf" srcId="{9D9E371C-686D-4054-A731-80938E9C030A}" destId="{4CCB807F-DBFA-4B26-84BC-ABD7393DC68A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2474B923-5748-4B46-9174-C903DE7E51F5}" type="presParOf" srcId="{4CCB807F-DBFA-4B26-84BC-ABD7393DC68A}" destId="{D9AD0D1A-E917-4FEC-84F3-7545C3E11398}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B73C2F01-77AC-4F62-9094-348D71965EA0}" type="presParOf" srcId="{4CCB807F-DBFA-4B26-84BC-ABD7393DC68A}" destId="{7430C116-4000-412F-B70D-C86841DE3E5D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2CFA72C1-31CD-4CEF-BFAB-58AEF6666B24}" type="presParOf" srcId="{9D9E371C-686D-4054-A731-80938E9C030A}" destId="{52C2811C-4396-45DC-9993-9F179DC62BFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{604A7CC7-2A68-488A-AD46-694EAF628258}" type="presParOf" srcId="{9D9E371C-686D-4054-A731-80938E9C030A}" destId="{99C6A38E-BB09-48E7-94C8-D546E33E2B6F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{146F5F21-4E64-41B6-9B72-B1FDF89D5528}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{481093D2-35B1-4F63-B4DA-9EFD4CF11BA2}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A3486156-2428-4982-B013-C4043E27DF4A}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{BCDBBD65-EE5A-4914-82A0-63675D020E5C}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FD41C1A1-49F6-4AC9-A610-9D6585BE83B2}" type="presParOf" srcId="{BCDBBD65-EE5A-4914-82A0-63675D020E5C}" destId="{54C4F44E-9D42-4E81-A151-27F01958D459}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8CCE41C5-8911-4C15-A24D-ED209E749EA9}" type="presParOf" srcId="{54C4F44E-9D42-4E81-A151-27F01958D459}" destId="{8696FB2F-B74C-4284-93FD-CADDEAD018DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C2410E5B-83A5-420F-A86D-E11E231391E9}" type="presParOf" srcId="{54C4F44E-9D42-4E81-A151-27F01958D459}" destId="{927DFF84-910C-4F85-B42F-F563743B5E13}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{093B6179-6A7F-4930-99E1-E3446E3F9707}" type="presParOf" srcId="{BCDBBD65-EE5A-4914-82A0-63675D020E5C}" destId="{998D7B4F-9881-4551-99B8-DD30FDD9803D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B6E2E490-3B4F-4A97-8A25-38EF9DF8E04A}" type="presParOf" srcId="{BCDBBD65-EE5A-4914-82A0-63675D020E5C}" destId="{C33182CB-3FD6-459C-B398-AB369F3D8DD9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1627B81F-FDBB-4D3A-A178-D6FB8C16D42A}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{B43B54FF-4968-4B80-9518-77BDFE55A029}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DA09FAD8-4569-41E1-ACDE-59F17B5B717B}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{1F47AAD7-2AAC-42A2-B698-DAF45534D614}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AA20BBC2-7555-40B1-BE90-37E43C1AB4A6}" type="presParOf" srcId="{1F47AAD7-2AAC-42A2-B698-DAF45534D614}" destId="{AE06012A-F253-4EC6-8905-8387517E8D72}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5538B75D-A939-4B2F-82F6-53B9C812C0C6}" type="presParOf" srcId="{AE06012A-F253-4EC6-8905-8387517E8D72}" destId="{6700433B-7E45-4267-AA10-ABA43A4ED20C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{56363D21-8985-44EF-A34D-918E214B61BD}" type="presParOf" srcId="{AE06012A-F253-4EC6-8905-8387517E8D72}" destId="{72B9246D-E7DE-4437-9795-7238B2DAEBCB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3BCD963D-0630-4A02-9E2B-12ABECDFCE0D}" type="presParOf" srcId="{1F47AAD7-2AAC-42A2-B698-DAF45534D614}" destId="{E1FD7ABE-BAD4-453A-9072-E58C9DE75CD6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2A752689-7926-48C5-BAAF-52C7A58EF9EA}" type="presParOf" srcId="{1F47AAD7-2AAC-42A2-B698-DAF45534D614}" destId="{F3298303-5689-47F5-B924-6786531361AA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DA668E57-1C10-4958-96F4-69DD99E55F73}" type="presParOf" srcId="{E9AC2B24-D4F3-43A0-B282-CDC6596FB425}" destId="{D5B9D0CC-E8AC-41A4-A948-27FFF2B5F09B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E3BC6ACC-139D-4C1C-970B-921EB82DBC81}" type="presParOf" srcId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" destId="{46DAEBF6-0A5C-43AE-B9F7-DE231E995B1E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{689F7A22-4552-4C47-80B5-2F6615AE1D37}" type="presParOf" srcId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" destId="{7C7C5016-4478-4651-BE67-947E47C80EFB}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F4812B4C-BCAA-42B9-AFE9-4F9A111989FC}" type="presParOf" srcId="{7C7C5016-4478-4651-BE67-947E47C80EFB}" destId="{80C18AC9-4B3B-4415-BA74-CC6ACDBF8B1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B3358B7D-DBBB-481C-B683-1C6859748E8E}" type="presParOf" srcId="{80C18AC9-4B3B-4415-BA74-CC6ACDBF8B1F}" destId="{DA8F9D03-B5B3-49F9-AEEF-C2E546A8C7A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{90E6C5C5-1D62-49CF-A9F5-DFE3A4CBB0DA}" type="presParOf" srcId="{80C18AC9-4B3B-4415-BA74-CC6ACDBF8B1F}" destId="{AE453DB4-B928-468B-8601-9371E2BBBBA0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{825665B0-2255-4D6F-9687-99D1BC8907E7}" type="presParOf" srcId="{7C7C5016-4478-4651-BE67-947E47C80EFB}" destId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{55BDA675-4A60-436F-95E1-604E5D69EC78}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{40D07927-79AC-4C9F-AC74-95D7DC0AFB16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{70D72180-9DF1-4394-853C-9B4FF6C082CA}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{6B29F431-5193-44F6-95A4-39B5C5742297}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4DE6DCB1-1C07-462C-A885-B7D5F458FB57}" type="presParOf" srcId="{6B29F431-5193-44F6-95A4-39B5C5742297}" destId="{E07D63DE-9500-410C-AFFF-92D487FB9B5F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{28C5C242-AFB1-4E9F-8288-8CAB028B3914}" type="presParOf" srcId="{E07D63DE-9500-410C-AFFF-92D487FB9B5F}" destId="{FC48BD82-19EB-4536-A8E5-9192F66DE36A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{82AFC83D-BA51-410F-86F4-13BF4F03236D}" type="presParOf" srcId="{E07D63DE-9500-410C-AFFF-92D487FB9B5F}" destId="{704E46B6-9C5B-4BF0-8B2F-AA956B2F6717}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9FBE9818-2A71-4F7E-8AC9-399537AB0D98}" type="presParOf" srcId="{6B29F431-5193-44F6-95A4-39B5C5742297}" destId="{DB1D41E9-2E37-4675-BBF8-347F040C4787}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A1158E08-B95D-4BC6-ABCD-A051C463494B}" type="presParOf" srcId="{6B29F431-5193-44F6-95A4-39B5C5742297}" destId="{5CE3BB43-2FAB-43A7-AC94-BD1CC16B770F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B0CA11AB-4025-4451-8D23-A988D253EF8F}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{8BD74B98-4F93-477B-869F-D8A12B7BAF2F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E157FC0F-9918-4105-A0C2-81CA7FFBB0E5}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{1972DAFD-DC46-4BC1-B473-7BF20C46C3F5}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{49AC4664-7FF3-477F-A9E0-885A9F29C76A}" type="presParOf" srcId="{1972DAFD-DC46-4BC1-B473-7BF20C46C3F5}" destId="{E2D04E71-913C-476A-AB1C-6574C4196BB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0B1D57BD-34B7-4FEF-85AF-576013039014}" type="presParOf" srcId="{E2D04E71-913C-476A-AB1C-6574C4196BB6}" destId="{A1A4778F-0BBA-4C0E-AFCB-D1779CC6ABB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2471F461-8714-4BBF-BB28-49447AE24E26}" type="presParOf" srcId="{E2D04E71-913C-476A-AB1C-6574C4196BB6}" destId="{15749489-7B40-4C23-BBA3-2B8DB0F18E81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{86250FF6-246A-4944-9DAE-9EB8147A7527}" type="presParOf" srcId="{1972DAFD-DC46-4BC1-B473-7BF20C46C3F5}" destId="{5188D101-93E7-4C69-AC01-28551A18DD82}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E49161BC-1F4A-4A2F-B5EC-E747990DD279}" type="presParOf" srcId="{5188D101-93E7-4C69-AC01-28551A18DD82}" destId="{C37D4FBA-EF1F-44B0-855C-3B564A6A48FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6EB14C3E-A9EF-4076-A43F-594ACA8A9764}" type="presParOf" srcId="{5188D101-93E7-4C69-AC01-28551A18DD82}" destId="{752FD8F2-0106-4BE1-A357-C6BB1649916F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2884C2EE-1773-4395-92A1-E26C2B6101DA}" type="presParOf" srcId="{752FD8F2-0106-4BE1-A357-C6BB1649916F}" destId="{F88BF1E5-F69E-4B9E-BDBC-91C88D279C07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9DC63A65-1CF2-4ECF-896E-C4144D0F2DC0}" type="presParOf" srcId="{F88BF1E5-F69E-4B9E-BDBC-91C88D279C07}" destId="{0203E005-081B-4C10-ACD8-1AC7794EC88E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AFA0BA97-F20E-41B8-84FB-91ECD720F806}" type="presParOf" srcId="{F88BF1E5-F69E-4B9E-BDBC-91C88D279C07}" destId="{3D452E87-2559-443E-9433-3995CBCA8C28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A1EE729F-0A3A-4F50-8689-3A0074BA735A}" type="presParOf" srcId="{752FD8F2-0106-4BE1-A357-C6BB1649916F}" destId="{E4B8DDF6-9BB6-488D-9CB3-CFB420A29A81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{83253660-16F0-4ACA-B483-4B29787AEEE0}" type="presParOf" srcId="{E4B8DDF6-9BB6-488D-9CB3-CFB420A29A81}" destId="{26F22A2A-8CC6-4F36-8B51-83033FA5AEF5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A71CC6F1-B75A-4D34-B215-BD9F8C6B4C2F}" type="presParOf" srcId="{E4B8DDF6-9BB6-488D-9CB3-CFB420A29A81}" destId="{376B72CE-6B06-40EE-84BA-7854BD1F7252}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{62D2DEAB-DE1D-4995-8EF8-35523DD91327}" type="presParOf" srcId="{376B72CE-6B06-40EE-84BA-7854BD1F7252}" destId="{7D90867C-52B1-4558-9BA9-67193C53E42D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9F68D442-C6EC-4651-AA96-63C9EB989BF4}" type="presParOf" srcId="{7D90867C-52B1-4558-9BA9-67193C53E42D}" destId="{D83CE99C-0515-4014-92FC-9219C146CCA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{892053F6-AEC4-462C-947E-E9B692A9D113}" type="presParOf" srcId="{7D90867C-52B1-4558-9BA9-67193C53E42D}" destId="{CDC76A16-1ABA-4232-988B-3F4D3C15F155}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AF454085-D253-4632-81F0-CB08C31D185C}" type="presParOf" srcId="{376B72CE-6B06-40EE-84BA-7854BD1F7252}" destId="{E47293B8-BD4F-44D0-84D6-941006541A1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{71F0E888-DC69-4543-A77A-C98266737823}" type="presParOf" srcId="{376B72CE-6B06-40EE-84BA-7854BD1F7252}" destId="{2D472228-F086-432C-A3BF-84314E3C53BC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EEAC62EA-346D-40FB-A57A-59661B448AD1}" type="presParOf" srcId="{2D472228-F086-432C-A3BF-84314E3C53BC}" destId="{2B74CA2E-4E95-4685-8B83-497A8BB8C157}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3B11B868-AC34-42F1-A70B-163B7831BC4B}" type="presParOf" srcId="{2D472228-F086-432C-A3BF-84314E3C53BC}" destId="{4EAD1E96-3E96-4C31-91A3-86A4265B5257}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A393AB0D-E760-4D99-8C19-3793412248BB}" type="presParOf" srcId="{4EAD1E96-3E96-4C31-91A3-86A4265B5257}" destId="{620A237B-CBC4-4A93-8052-70D9AC860E23}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{269B663B-E59B-47E8-9A4D-1C03BABE98D5}" type="presParOf" srcId="{620A237B-CBC4-4A93-8052-70D9AC860E23}" destId="{DFD166F7-29ED-4BF3-B6EA-EF547E469607}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C751AAF6-4AA7-4B41-84B3-42F4C5D7CC2E}" type="presParOf" srcId="{620A237B-CBC4-4A93-8052-70D9AC860E23}" destId="{4DD5575A-A70E-4351-A842-5DFC53B4D3F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{40206819-D3B2-4953-A95B-443BBC59E829}" type="presParOf" srcId="{4EAD1E96-3E96-4C31-91A3-86A4265B5257}" destId="{3D29BD28-6A48-4057-98C0-516F95FF144C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2212F315-64F4-415D-BEEA-38181773211D}" type="presParOf" srcId="{4EAD1E96-3E96-4C31-91A3-86A4265B5257}" destId="{E46F6D51-9606-4191-AE53-CEFA46567105}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B3ED76B4-A4CF-4A0C-9DAB-965390654CB8}" type="presParOf" srcId="{752FD8F2-0106-4BE1-A357-C6BB1649916F}" destId="{4AEBC7FE-F465-48CD-8567-9C56F8F43D48}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{700D7B76-D7EB-494F-8458-50149EBCE171}" type="presParOf" srcId="{4AEBC7FE-F465-48CD-8567-9C56F8F43D48}" destId="{A58F2B6C-7117-4331-AC97-CC25D7002555}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C291154E-92FF-4073-BC43-B2F13D8E185F}" type="presParOf" srcId="{4AEBC7FE-F465-48CD-8567-9C56F8F43D48}" destId="{9D00C112-4C2A-466A-BFAD-E1B8AAF5E839}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C833EBBA-256F-408A-8A2B-9DAB220E9828}" type="presParOf" srcId="{9D00C112-4C2A-466A-BFAD-E1B8AAF5E839}" destId="{8ACF7F5E-9611-404D-A4E9-A0E68E961B93}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{03D85148-5DEF-4068-B5FA-C79B22228456}" type="presParOf" srcId="{8ACF7F5E-9611-404D-A4E9-A0E68E961B93}" destId="{6B61E405-3DC9-4012-9930-EAC68FD4D653}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{800C0A3A-9129-4700-ADD6-4B50CDA643EE}" type="presParOf" srcId="{8ACF7F5E-9611-404D-A4E9-A0E68E961B93}" destId="{04E06FC5-75F9-41F5-B96D-A2BA541EFC55}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FD0BF6BA-1F95-4589-BD99-50136C048100}" type="presParOf" srcId="{9D00C112-4C2A-466A-BFAD-E1B8AAF5E839}" destId="{6E121D71-C76E-4DA7-A7C7-2DA0A8513A28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{930EBCAF-B38B-4709-8D3E-19C5B2A90F87}" type="presParOf" srcId="{9D00C112-4C2A-466A-BFAD-E1B8AAF5E839}" destId="{60DB18D5-41E0-4454-82E8-349932AA8B69}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4D2BE485-2B11-4AF9-89B0-D041D35BFAF4}" type="presParOf" srcId="{1972DAFD-DC46-4BC1-B473-7BF20C46C3F5}" destId="{ED5E9274-1E16-46F7-A8BB-065C847CF9A3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5A2BAB98-3B97-414F-9CF3-B084AD78E065}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{442ECB07-1145-4ABB-98B9-5777DA12DB5B}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{66A4A82F-F8ED-4CB4-BD55-2CB51B1B156C}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{A48ACDC6-2A59-4C6A-8E21-6C50819F0A94}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2F6FD9E5-94A9-47AE-B768-F2AD894F871D}" type="presParOf" srcId="{A48ACDC6-2A59-4C6A-8E21-6C50819F0A94}" destId="{9F5607ED-D078-4040-B7D8-1E21A2E4061C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D0F80AC2-6074-4724-93D5-F7DAB220A0F4}" type="presParOf" srcId="{9F5607ED-D078-4040-B7D8-1E21A2E4061C}" destId="{1DF86D04-7972-4C82-85DE-84683C027A28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9BE30F80-1F94-4DE7-A742-25AECD0F763A}" type="presParOf" srcId="{9F5607ED-D078-4040-B7D8-1E21A2E4061C}" destId="{CC216CED-9E3B-4875-8F0B-1A7DDFD6106B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6A46667A-21DE-4C60-B225-E9561D4173C3}" type="presParOf" srcId="{A48ACDC6-2A59-4C6A-8E21-6C50819F0A94}" destId="{875A9740-577B-4847-B022-51F46E80184F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{18364414-9933-46A3-A3D4-CE9F848B913C}" type="presParOf" srcId="{A48ACDC6-2A59-4C6A-8E21-6C50819F0A94}" destId="{7B0FB404-0B5B-4EEE-B05A-135B84B5ACF4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{800EB5A5-132C-423A-80BC-EE84A8BCFE37}" type="presParOf" srcId="{7C7C5016-4478-4651-BE67-947E47C80EFB}" destId="{D90A6A21-3001-4594-9285-9083770E38C6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F64520B1-7B7A-45A3-8BE8-6324842B35FA}" type="presParOf" srcId="{4E93FCBF-1581-4FE4-B9C1-D749E53062D9}" destId="{DF181F74-4DAF-4308-B850-E90CCCDDE137}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ABD57F13-CE60-43B5-9C88-26E1277706B5}" type="presParOf" srcId="{8D1A72EB-9880-475E-8A28-BF2B0B401B60}" destId="{42F3D9D1-D23A-4AD6-87EB-A34C3185CE25}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{85AEE8F5-66B0-43E1-B0C0-876F423C4BA1}" type="presParOf" srcId="{2F22F17E-F4F8-4F36-A108-643DEF33F0F2}" destId="{15A93F08-0DF1-4EFD-9A16-83FBFE415466}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F35668D-7B22-42A2-A060-4E06299FE743}" type="presParOf" srcId="{15A93F08-0DF1-4EFD-9A16-83FBFE415466}" destId="{8F3D0191-C403-4316-9539-AA954BE1280A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6A3F004E-AB25-4713-8A2A-714A1B8CF540}" type="presParOf" srcId="{15A93F08-0DF1-4EFD-9A16-83FBFE415466}" destId="{CB99727F-000C-4197-B410-FDB8EBB0358E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5B353AE8-2AE6-492A-B38D-7D11BB7AFE9E}" type="presParOf" srcId="{CB99727F-000C-4197-B410-FDB8EBB0358E}" destId="{ED7D0EC6-527D-4837-BD05-D9BCEA185DD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{866EA064-7A3E-4953-8E8F-AA1D3D7E1520}" type="presParOf" srcId="{ED7D0EC6-527D-4837-BD05-D9BCEA185DD6}" destId="{55D45C88-E238-4890-BC8D-B335EBEAE613}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7D4255A0-C390-4C6D-AF42-67FA972475FB}" type="presParOf" srcId="{ED7D0EC6-527D-4837-BD05-D9BCEA185DD6}" destId="{712B008C-84F8-47B6-9EA2-F32FF626FE45}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D30182BA-B96F-4BCA-B97E-FB7E9C5D9BD4}" type="presParOf" srcId="{CB99727F-000C-4197-B410-FDB8EBB0358E}" destId="{390E57DD-80E6-4288-9628-10A933099B30}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4E7F20C6-F859-458F-9856-DDA2BE0DAE31}" type="presParOf" srcId="{CB99727F-000C-4197-B410-FDB8EBB0358E}" destId="{AA6C4ECB-FD92-4339-86DD-AC230A9D801E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B638BF45-3CF7-415A-B345-25E3D0463791}" type="presParOf" srcId="{E7E45AAC-2F7A-45E1-B818-0E5201A8E17A}" destId="{F754C96C-3974-4E20-81B8-D031D0D1C0A0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{090F6447-660B-4D91-8AC3-CCD02C9CD33A}" type="presParOf" srcId="{F754C96C-3974-4E20-81B8-D031D0D1C0A0}" destId="{CCC151FA-1A0B-4E17-9AAC-33D3664062CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C132BB6B-795B-43C6-9999-97FE0FB0DFB1}" type="presParOf" srcId="{F754C96C-3974-4E20-81B8-D031D0D1C0A0}" destId="{3A76E6D8-CF2C-47B1-AC7C-3C8B27C2708F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5D19138F-99BE-4F3D-A82F-FC6E935C13DF}" type="presParOf" srcId="{3A76E6D8-CF2C-47B1-AC7C-3C8B27C2708F}" destId="{CC5350F7-C7DF-43F3-9F67-BEC6FD02EF95}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{368C96F0-89CF-4331-8A49-3B796395869D}" type="presParOf" srcId="{CC5350F7-C7DF-43F3-9F67-BEC6FD02EF95}" destId="{CDBD0B08-2B12-4AF3-BFDC-AF29F28EC0D1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9BEA789A-2AAF-4C2A-BCF2-5080D679A6F7}" type="presParOf" srcId="{CC5350F7-C7DF-43F3-9F67-BEC6FD02EF95}" destId="{58AB1621-F2AB-41CB-A75A-BA500A0B1253}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{73C237C0-C304-4D43-8CE2-25817646AF71}" type="presParOf" srcId="{3A76E6D8-CF2C-47B1-AC7C-3C8B27C2708F}" destId="{F175F2B5-8386-4C3D-8DF0-5F148CB3FF92}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0EBF14AC-F400-4D7A-9E4B-D5376FC80B64}" type="presParOf" srcId="{3A76E6D8-CF2C-47B1-AC7C-3C8B27C2708F}" destId="{B7EA8594-66DA-43DB-B20A-C2AAA6BC7F58}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D51A2CCD-9E25-4568-9919-688196BE3A44}" type="presParOf" srcId="{28E31BB8-3141-4EB7-B2EE-C1A44DAFD2AA}" destId="{C712DD62-0E2B-4B07-8F4D-A7C17A6B9046}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0C15D4D8-1A51-4ECB-A9AB-698077892F00}" type="presParOf" srcId="{5D26EBE7-8C18-4767-AB48-EA7294E3C955}" destId="{B99788E4-0251-4EC8-A38E-D14759277481}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D2706EEE-8201-44A7-BF15-D6C5B92DC4C3}" type="presParOf" srcId="{B99788E4-0251-4EC8-A38E-D14759277481}" destId="{272D8880-E493-441E-8BFF-FA14A79EA53B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8AC9416A-7A3B-44EF-AA8D-01E685DE10DC}" type="presParOf" srcId="{B99788E4-0251-4EC8-A38E-D14759277481}" destId="{273E6825-8D78-4A3E-AFF3-A0259ED2E762}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8B2DF5A2-D90D-4D59-BE14-9869953B5A5A}" type="presParOf" srcId="{273E6825-8D78-4A3E-AFF3-A0259ED2E762}" destId="{B4681627-75C8-4A1E-8AFA-D4294FE9A0F5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AF38AAFA-DD9E-4DAD-BCC1-EFF746741FAB}" type="presParOf" srcId="{B4681627-75C8-4A1E-8AFA-D4294FE9A0F5}" destId="{59A62163-7996-45D8-982B-C03ED1A0B491}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3F7B7578-158C-46D5-BB8F-AC2B28988992}" type="presParOf" srcId="{B4681627-75C8-4A1E-8AFA-D4294FE9A0F5}" destId="{5D09497E-8FCB-497A-84C9-34FD127E62C3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{829A594F-F0A1-4ED4-A716-4FA65A91F96A}" type="presParOf" srcId="{273E6825-8D78-4A3E-AFF3-A0259ED2E762}" destId="{FC042C08-CD25-46B7-89DA-E2437FFA0E94}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{050A9741-37EC-42B8-A97F-559712AC2A52}" type="presParOf" srcId="{273E6825-8D78-4A3E-AFF3-A0259ED2E762}" destId="{6D55F240-F208-4A92-A978-2F33A05BEEC7}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{94820EBB-9695-463C-ADA1-5F7D13DA5D10}" type="presParOf" srcId="{209D2ACB-7EA6-4639-A4FE-A44E2F781B58}" destId="{1713D8DE-AF42-4A62-9BFB-FA22A93B4B22}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D87CCB03-BC0B-4F8A-949E-2E550629BD58}" type="presParOf" srcId="{209D2ACB-7EA6-4639-A4FE-A44E2F781B58}" destId="{E7E45AAC-2F7A-45E1-B818-0E5201A8E17A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{12E1077A-B4D5-4EAF-B64F-0848D91EFC63}" type="presParOf" srcId="{E7E45AAC-2F7A-45E1-B818-0E5201A8E17A}" destId="{2962F395-ED6A-418B-9BBD-B7C800DCDC5E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{29E279BE-1FEF-49F4-B22B-062977BB483F}" type="presParOf" srcId="{2962F395-ED6A-418B-9BBD-B7C800DCDC5E}" destId="{EC47C248-2C2E-4C81-881E-A4378E48247D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A730A0BC-9CCE-429A-AA88-F5DE5E251482}" type="presParOf" srcId="{2962F395-ED6A-418B-9BBD-B7C800DCDC5E}" destId="{83824BC3-69C6-471D-8653-29FFCA69FAD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B29B9AF1-A42D-4046-BEA4-78525F8B2199}" type="presParOf" srcId="{E7E45AAC-2F7A-45E1-B818-0E5201A8E17A}" destId="{0749DB12-644D-4E9F-9278-550F25287FC5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2FEB6CDA-70FD-4577-AD91-9F2E5758F604}" type="presParOf" srcId="{0749DB12-644D-4E9F-9278-550F25287FC5}" destId="{A7021507-15C2-4974-82F8-E8F19B8A460B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7191E104-A2A3-4336-AF25-4A3452289A9C}" type="presParOf" srcId="{0749DB12-644D-4E9F-9278-550F25287FC5}" destId="{2B89ED18-34E0-4E9D-9E6F-007ED978C7EF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C76C8102-539A-4D1B-B497-B464339CF0A3}" type="presParOf" srcId="{2B89ED18-34E0-4E9D-9E6F-007ED978C7EF}" destId="{8731726D-B094-4FAF-98DB-BBD3F4503903}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5E35AFD5-35B7-46A6-AE50-42745D9730AD}" type="presParOf" srcId="{8731726D-B094-4FAF-98DB-BBD3F4503903}" destId="{D4197FE3-7C68-4EA0-A381-9045A01904C0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D002582A-D970-4A3F-ACA0-C4AB67A9A900}" type="presParOf" srcId="{8731726D-B094-4FAF-98DB-BBD3F4503903}" destId="{09AE2075-226C-4D6D-AB4A-51AA4E24709D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F4D11DBA-F5B4-4275-9419-40D2263EFC6A}" type="presParOf" srcId="{2B89ED18-34E0-4E9D-9E6F-007ED978C7EF}" destId="{E61A3DB8-76F5-4F52-BA04-BAFD1391288C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{34200390-398B-46B3-A990-D411509B4DCF}" type="presParOf" srcId="{2B89ED18-34E0-4E9D-9E6F-007ED978C7EF}" destId="{CA15A0AF-369E-4E4B-A641-3D2BAE9F6BE8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{281A43C0-D879-4E40-8875-6E438F3041A5}" type="presParOf" srcId="{0749DB12-644D-4E9F-9278-550F25287FC5}" destId="{FBC79CCD-8433-44C4-BDA4-24CA8CE015F5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C3FA2FFD-7860-46B2-8EA8-EF7B3EF3AC52}" type="presParOf" srcId="{0749DB12-644D-4E9F-9278-550F25287FC5}" destId="{2F22F17E-F4F8-4F36-A108-643DEF33F0F2}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{17A99E8F-B9C0-4650-BFF6-78DCF216955B}" type="presParOf" srcId="{2F22F17E-F4F8-4F36-A108-643DEF33F0F2}" destId="{1AAB63E2-8DC6-4DF1-818F-43B5F63218A2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{43223598-E0EE-40E8-8417-6708179CF763}" type="presParOf" srcId="{1AAB63E2-8DC6-4DF1-818F-43B5F63218A2}" destId="{5707B9E7-4EC4-48F3-B5B7-C0F4AD71878C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6F1C8629-A335-4A0C-BFA8-7A7AB5439759}" type="presParOf" srcId="{1AAB63E2-8DC6-4DF1-818F-43B5F63218A2}" destId="{39F5929B-9743-4646-85A6-63799662CF4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1F9FA6CE-A83A-4616-8FB3-97C4577A18A1}" type="presParOf" srcId="{2F22F17E-F4F8-4F36-A108-643DEF33F0F2}" destId="{CA0BCD1B-D3A2-4CAD-8555-3DA68EE2EF53}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{50B55249-27C3-4F28-8CF3-9E2A168E6B59}" type="presParOf" srcId="{CA0BCD1B-D3A2-4CAD-8555-3DA68EE2EF53}" destId="{31029E5D-38F0-4445-AD80-D53D3829D0D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A3A5DD79-B48C-4D0D-8FBF-578B51D873D2}" type="presParOf" srcId="{CA0BCD1B-D3A2-4CAD-8555-3DA68EE2EF53}" destId="{8D1A72EB-9880-475E-8A28-BF2B0B401B60}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A625454A-1E12-48B4-8534-F45899847B3D}" type="presParOf" srcId="{8D1A72EB-9880-475E-8A28-BF2B0B401B60}" destId="{C3635134-BE99-4EAA-96E9-E31A897BB487}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{68A08EE3-8219-4E91-81FC-23915FD16A1C}" type="presParOf" srcId="{C3635134-BE99-4EAA-96E9-E31A897BB487}" destId="{C5AC313F-9E85-4FED-9162-78CA68DCB05A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BE420D4B-ADE5-4C9B-AA51-A6386D4FEA2A}" type="presParOf" srcId="{C3635134-BE99-4EAA-96E9-E31A897BB487}" destId="{360F100E-2821-4F68-BF6E-F50D9696266B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9F08C6CA-2E24-4F64-8DB0-0571AC934CDB}" type="presParOf" srcId="{8D1A72EB-9880-475E-8A28-BF2B0B401B60}" destId="{4F443EB9-C790-4D6B-A657-54FA4FB9026F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{066120AC-47BC-4D9A-84EC-6AA50489FE08}" type="presParOf" srcId="{4F443EB9-C790-4D6B-A657-54FA4FB9026F}" destId="{1ABD0C0D-2167-4E5E-9426-B401594EE7B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{18D94E38-2C3E-4D5B-BC84-E9EB57E675B2}" type="presParOf" srcId="{4F443EB9-C790-4D6B-A657-54FA4FB9026F}" destId="{4E93FCBF-1581-4FE4-B9C1-D749E53062D9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{88A25B6B-CA03-413A-B304-203828B60B02}" type="presParOf" srcId="{4E93FCBF-1581-4FE4-B9C1-D749E53062D9}" destId="{8FB8C1D1-90AE-4F2B-AD63-11D32EF89F3E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E5A7D37A-359C-4228-8DEA-4B4E4CB0CDB5}" type="presParOf" srcId="{8FB8C1D1-90AE-4F2B-AD63-11D32EF89F3E}" destId="{092D19DD-7BA6-4B64-9E4E-B1D540429B26}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B08DC0C1-34F0-48DE-81EB-59AE5C478E31}" type="presParOf" srcId="{8FB8C1D1-90AE-4F2B-AD63-11D32EF89F3E}" destId="{B394C574-A5E7-4981-B328-6335554E598B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{71754F44-D0F1-4FAE-9C77-D627FADD42A8}" type="presParOf" srcId="{4E93FCBF-1581-4FE4-B9C1-D749E53062D9}" destId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3095DB1D-FE1F-4423-8988-30C1B89AE117}" type="presParOf" srcId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" destId="{B440F889-F3DB-4D8A-8934-5680DA0624D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2F34375E-1E1B-482B-A4DC-844785FB9E41}" type="presParOf" srcId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" destId="{E9AC2B24-D4F3-43A0-B282-CDC6596FB425}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{50BA2298-0E4A-46C6-B305-39B01E2D1D4B}" type="presParOf" srcId="{E9AC2B24-D4F3-43A0-B282-CDC6596FB425}" destId="{81F71451-C6F5-43DC-B931-ABED9B1FA5A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{79CA1F04-782D-4BB9-84FE-3C69D8C60EF7}" type="presParOf" srcId="{81F71451-C6F5-43DC-B931-ABED9B1FA5A6}" destId="{02C6B524-D8FC-495D-B3F3-DD87F2B607B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{27DC208C-1BB1-4C05-AAC5-48C972CC6BA0}" type="presParOf" srcId="{81F71451-C6F5-43DC-B931-ABED9B1FA5A6}" destId="{844F720F-8888-41D5-9C8A-8E8313B26C01}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{20747AA6-74DE-4D74-B0EA-055C23F8C0CD}" type="presParOf" srcId="{E9AC2B24-D4F3-43A0-B282-CDC6596FB425}" destId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{79BE0037-1C5D-4196-9B53-6D051434BC68}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{F1C115F3-7689-4248-8F15-5ADB4A5E41E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C6192378-EBF7-4667-A9AE-1E739FD5750E}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{262263AC-FA51-4228-AA1A-2144A31DA57F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5F60A533-2BAC-4F44-B6EB-73B208181F60}" type="presParOf" srcId="{262263AC-FA51-4228-AA1A-2144A31DA57F}" destId="{CE8E273D-F222-4318-A7C7-49EE7A0A4F30}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E1E8ADD6-6AC2-4FFA-A28C-CB95DAEE80C3}" type="presParOf" srcId="{CE8E273D-F222-4318-A7C7-49EE7A0A4F30}" destId="{603B877B-343F-4384-B81E-A743DDE75595}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{39ED9F5C-486A-44C3-BBC7-45077A0A55A1}" type="presParOf" srcId="{CE8E273D-F222-4318-A7C7-49EE7A0A4F30}" destId="{A0924645-04A3-40BB-8B76-40C1983BEFBD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{29B40B0E-D803-4918-BEBA-97034E184914}" type="presParOf" srcId="{262263AC-FA51-4228-AA1A-2144A31DA57F}" destId="{02FBEF6F-8F15-45BC-BFB8-3BE6A8D6F680}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CF786073-B513-4D40-A1E3-1477A831EC4D}" type="presParOf" srcId="{02FBEF6F-8F15-45BC-BFB8-3BE6A8D6F680}" destId="{B2B65F4D-9EE8-4AF4-AAA0-11BF84EAB3E7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BDC1F56B-D32E-48E6-846E-A0CDADBF738A}" type="presParOf" srcId="{02FBEF6F-8F15-45BC-BFB8-3BE6A8D6F680}" destId="{668D953E-5B9D-4A7F-8B2B-535354FCC667}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4CA60BBB-B671-4848-9D27-4A18F5907A63}" type="presParOf" srcId="{668D953E-5B9D-4A7F-8B2B-535354FCC667}" destId="{9A06BA02-92B5-478E-828B-A2BD6AB0DFD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A915D305-6934-47F7-BE05-8DA970210906}" type="presParOf" srcId="{9A06BA02-92B5-478E-828B-A2BD6AB0DFD9}" destId="{CA6C17FE-417B-4355-BBDC-45A7403EE4A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A113C5DF-8BD1-438E-923D-00D6E1551121}" type="presParOf" srcId="{9A06BA02-92B5-478E-828B-A2BD6AB0DFD9}" destId="{1D3F302F-C8DC-4950-9F70-A879CFA08C76}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FB890CAD-C4E4-4BB0-AF72-9A99A9979E57}" type="presParOf" srcId="{668D953E-5B9D-4A7F-8B2B-535354FCC667}" destId="{83F067F6-DF1A-4A3B-A241-1007820AD083}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{696678E5-1E42-48FD-94DF-1EF423B541A5}" type="presParOf" srcId="{668D953E-5B9D-4A7F-8B2B-535354FCC667}" destId="{84AAE31D-044B-49F8-878A-282CC8B8F646}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9F8EBEC9-4C9A-4BDA-B886-E0F8CD322446}" type="presParOf" srcId="{262263AC-FA51-4228-AA1A-2144A31DA57F}" destId="{EB8454C7-6B2B-48B5-AF2E-F7A48590A862}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{90D77084-0AE7-4DEE-B699-CFB5E74AF2F6}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{8D4D2CA9-ECD4-493D-BDF7-E85363F5DD67}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{20240990-B61A-416E-98D8-76E7F91D4A3B}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{9D9E371C-686D-4054-A731-80938E9C030A}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5061E049-3F40-41F5-B53F-9DE1A6509BA2}" type="presParOf" srcId="{9D9E371C-686D-4054-A731-80938E9C030A}" destId="{4CCB807F-DBFA-4B26-84BC-ABD7393DC68A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EA91A40C-C8A7-47B7-BE40-CCF7BC6642B3}" type="presParOf" srcId="{4CCB807F-DBFA-4B26-84BC-ABD7393DC68A}" destId="{D9AD0D1A-E917-4FEC-84F3-7545C3E11398}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2904F763-FF7A-4D8F-9062-60B5B21B8879}" type="presParOf" srcId="{4CCB807F-DBFA-4B26-84BC-ABD7393DC68A}" destId="{7430C116-4000-412F-B70D-C86841DE3E5D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{55EA0794-FFDC-44E8-99A4-BC4512756261}" type="presParOf" srcId="{9D9E371C-686D-4054-A731-80938E9C030A}" destId="{52C2811C-4396-45DC-9993-9F179DC62BFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F637CF78-D880-4152-A1E0-B58848664D7B}" type="presParOf" srcId="{9D9E371C-686D-4054-A731-80938E9C030A}" destId="{99C6A38E-BB09-48E7-94C8-D546E33E2B6F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{511FF960-7DFE-4B88-A109-897B2065096C}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{481093D2-35B1-4F63-B4DA-9EFD4CF11BA2}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2E1A6257-0ECC-4400-863C-8AF5020187D6}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{BCDBBD65-EE5A-4914-82A0-63675D020E5C}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2FC1D805-F0FA-4BBA-B4EA-2E176B6C30CC}" type="presParOf" srcId="{BCDBBD65-EE5A-4914-82A0-63675D020E5C}" destId="{54C4F44E-9D42-4E81-A151-27F01958D459}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3097A4E1-2955-46FD-AE37-5631B30AFFEA}" type="presParOf" srcId="{54C4F44E-9D42-4E81-A151-27F01958D459}" destId="{8696FB2F-B74C-4284-93FD-CADDEAD018DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{599E927F-6D0B-42B3-88E4-FD564ED13CB0}" type="presParOf" srcId="{54C4F44E-9D42-4E81-A151-27F01958D459}" destId="{927DFF84-910C-4F85-B42F-F563743B5E13}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C8B5E550-F564-4C17-B907-175FC18CC8BB}" type="presParOf" srcId="{BCDBBD65-EE5A-4914-82A0-63675D020E5C}" destId="{998D7B4F-9881-4551-99B8-DD30FDD9803D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3AA899AC-CE9A-4FCC-BE25-B00F71898AF6}" type="presParOf" srcId="{BCDBBD65-EE5A-4914-82A0-63675D020E5C}" destId="{C33182CB-3FD6-459C-B398-AB369F3D8DD9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D6DDDE6A-1FAD-49A2-BE70-3E147714789F}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{B43B54FF-4968-4B80-9518-77BDFE55A029}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{26A622AF-6825-4B24-80A7-F7722C7DC8D0}" type="presParOf" srcId="{6D81C9FF-2F85-4B17-95FB-B0824BCE912B}" destId="{1F47AAD7-2AAC-42A2-B698-DAF45534D614}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CF9660E8-5809-46B4-B7AF-D68D651E13B7}" type="presParOf" srcId="{1F47AAD7-2AAC-42A2-B698-DAF45534D614}" destId="{AE06012A-F253-4EC6-8905-8387517E8D72}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9238C9F2-61A0-4912-BD38-5EDEAA996C67}" type="presParOf" srcId="{AE06012A-F253-4EC6-8905-8387517E8D72}" destId="{6700433B-7E45-4267-AA10-ABA43A4ED20C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B300FB58-06F5-4872-916E-EF9CBF16647E}" type="presParOf" srcId="{AE06012A-F253-4EC6-8905-8387517E8D72}" destId="{72B9246D-E7DE-4437-9795-7238B2DAEBCB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7C3CA315-39F0-4DE0-B897-2AD5BAEC4E14}" type="presParOf" srcId="{1F47AAD7-2AAC-42A2-B698-DAF45534D614}" destId="{E1FD7ABE-BAD4-453A-9072-E58C9DE75CD6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{580DB4DA-C53A-4B09-8586-4A681EFF2E5F}" type="presParOf" srcId="{1F47AAD7-2AAC-42A2-B698-DAF45534D614}" destId="{F3298303-5689-47F5-B924-6786531361AA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8FA850B5-C7ED-46AC-B5DA-6EA7874ABC43}" type="presParOf" srcId="{E9AC2B24-D4F3-43A0-B282-CDC6596FB425}" destId="{D5B9D0CC-E8AC-41A4-A948-27FFF2B5F09B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3A201B5A-EB8E-41F1-BD62-EB0E4EBA457B}" type="presParOf" srcId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" destId="{46DAEBF6-0A5C-43AE-B9F7-DE231E995B1E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DB1291B1-38E7-4FFE-9E7A-639520901F9E}" type="presParOf" srcId="{85B27D84-5192-4F46-B9C1-D0458D8EA023}" destId="{7C7C5016-4478-4651-BE67-947E47C80EFB}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{146EB4F9-DFEB-49DB-ABF0-6356D5D27D08}" type="presParOf" srcId="{7C7C5016-4478-4651-BE67-947E47C80EFB}" destId="{80C18AC9-4B3B-4415-BA74-CC6ACDBF8B1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C3425103-2A1B-41E5-8866-78478F951481}" type="presParOf" srcId="{80C18AC9-4B3B-4415-BA74-CC6ACDBF8B1F}" destId="{DA8F9D03-B5B3-49F9-AEEF-C2E546A8C7A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3ECA56D8-B815-4DFC-8000-C770F26ACE8C}" type="presParOf" srcId="{80C18AC9-4B3B-4415-BA74-CC6ACDBF8B1F}" destId="{AE453DB4-B928-468B-8601-9371E2BBBBA0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F6D958B7-20F8-4B0C-A1E7-EF2BA52E02F0}" type="presParOf" srcId="{7C7C5016-4478-4651-BE67-947E47C80EFB}" destId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5FF6E332-8820-4D95-83A4-FAF489DE960E}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{40D07927-79AC-4C9F-AC74-95D7DC0AFB16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E036AF96-FFFE-42E5-A7D0-96B992D5408A}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{6B29F431-5193-44F6-95A4-39B5C5742297}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{18774E01-C117-44FC-B86D-15F814881A17}" type="presParOf" srcId="{6B29F431-5193-44F6-95A4-39B5C5742297}" destId="{E07D63DE-9500-410C-AFFF-92D487FB9B5F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{030F0F97-D1C3-4421-BC67-DF696A844DFB}" type="presParOf" srcId="{E07D63DE-9500-410C-AFFF-92D487FB9B5F}" destId="{FC48BD82-19EB-4536-A8E5-9192F66DE36A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ED975169-FB76-4D50-BA7F-BE55FEB4D235}" type="presParOf" srcId="{E07D63DE-9500-410C-AFFF-92D487FB9B5F}" destId="{704E46B6-9C5B-4BF0-8B2F-AA956B2F6717}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F570DEFF-48B6-47EA-BECC-6C8AE7C0DDC2}" type="presParOf" srcId="{6B29F431-5193-44F6-95A4-39B5C5742297}" destId="{DB1D41E9-2E37-4675-BBF8-347F040C4787}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5E185E78-334A-4553-AF0A-290662E6DBA0}" type="presParOf" srcId="{6B29F431-5193-44F6-95A4-39B5C5742297}" destId="{5CE3BB43-2FAB-43A7-AC94-BD1CC16B770F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FB0A0CA1-D523-4F76-A035-147DF3F12588}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{8BD74B98-4F93-477B-869F-D8A12B7BAF2F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{59EDEA12-DE3B-4D5E-BF85-4A8A1A9DEA02}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{1972DAFD-DC46-4BC1-B473-7BF20C46C3F5}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A097E626-0CD1-437D-8E06-CC89B44FF2F0}" type="presParOf" srcId="{1972DAFD-DC46-4BC1-B473-7BF20C46C3F5}" destId="{E2D04E71-913C-476A-AB1C-6574C4196BB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{628FB01C-C89E-471A-B252-08B1B7CC5E0E}" type="presParOf" srcId="{E2D04E71-913C-476A-AB1C-6574C4196BB6}" destId="{A1A4778F-0BBA-4C0E-AFCB-D1779CC6ABB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{44E34629-81CC-48EC-B14D-FE34639C42DD}" type="presParOf" srcId="{E2D04E71-913C-476A-AB1C-6574C4196BB6}" destId="{15749489-7B40-4C23-BBA3-2B8DB0F18E81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6450874C-3E81-4901-B544-4BF9C8434B2F}" type="presParOf" srcId="{1972DAFD-DC46-4BC1-B473-7BF20C46C3F5}" destId="{5188D101-93E7-4C69-AC01-28551A18DD82}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{58B26906-C3B0-4DBF-B071-42EC244D0123}" type="presParOf" srcId="{5188D101-93E7-4C69-AC01-28551A18DD82}" destId="{C37D4FBA-EF1F-44B0-855C-3B564A6A48FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{708D7471-D775-4780-81AC-25123258415D}" type="presParOf" srcId="{5188D101-93E7-4C69-AC01-28551A18DD82}" destId="{752FD8F2-0106-4BE1-A357-C6BB1649916F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CC5FD8C7-7D28-40D8-BDDF-CF47006C0D88}" type="presParOf" srcId="{752FD8F2-0106-4BE1-A357-C6BB1649916F}" destId="{F88BF1E5-F69E-4B9E-BDBC-91C88D279C07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E21911FC-4849-4506-87DE-A5749D004FC2}" type="presParOf" srcId="{F88BF1E5-F69E-4B9E-BDBC-91C88D279C07}" destId="{0203E005-081B-4C10-ACD8-1AC7794EC88E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5BE160A3-76C9-4B8F-9E50-EDCA6D48C0A6}" type="presParOf" srcId="{F88BF1E5-F69E-4B9E-BDBC-91C88D279C07}" destId="{3D452E87-2559-443E-9433-3995CBCA8C28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{695B0130-302A-47E3-AAF8-BA0D3310A9DE}" type="presParOf" srcId="{752FD8F2-0106-4BE1-A357-C6BB1649916F}" destId="{E4B8DDF6-9BB6-488D-9CB3-CFB420A29A81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{321D94D0-CCD4-43AD-B016-D1426B93C728}" type="presParOf" srcId="{E4B8DDF6-9BB6-488D-9CB3-CFB420A29A81}" destId="{26F22A2A-8CC6-4F36-8B51-83033FA5AEF5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{84CBB7D3-32EF-4574-9E3D-D4517D785276}" type="presParOf" srcId="{E4B8DDF6-9BB6-488D-9CB3-CFB420A29A81}" destId="{376B72CE-6B06-40EE-84BA-7854BD1F7252}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{95FE2979-57AC-43C3-84CE-0536E7FC6F38}" type="presParOf" srcId="{376B72CE-6B06-40EE-84BA-7854BD1F7252}" destId="{7D90867C-52B1-4558-9BA9-67193C53E42D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A5761DD6-8302-48AE-B375-EEB868DEAFED}" type="presParOf" srcId="{7D90867C-52B1-4558-9BA9-67193C53E42D}" destId="{D83CE99C-0515-4014-92FC-9219C146CCA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{80C7283F-4750-4E2C-8553-BDF76210E9AE}" type="presParOf" srcId="{7D90867C-52B1-4558-9BA9-67193C53E42D}" destId="{CDC76A16-1ABA-4232-988B-3F4D3C15F155}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A860E73F-3A46-46FF-8C2A-0160CC4E12E6}" type="presParOf" srcId="{376B72CE-6B06-40EE-84BA-7854BD1F7252}" destId="{E47293B8-BD4F-44D0-84D6-941006541A1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{680DFECD-DFDE-453E-A821-D01E20F448E5}" type="presParOf" srcId="{376B72CE-6B06-40EE-84BA-7854BD1F7252}" destId="{2D472228-F086-432C-A3BF-84314E3C53BC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CD0359A7-710D-437E-830C-AA782571134B}" type="presParOf" srcId="{2D472228-F086-432C-A3BF-84314E3C53BC}" destId="{2B74CA2E-4E95-4685-8B83-497A8BB8C157}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8B83DA3F-18D4-4AF0-8FB3-075016346DEE}" type="presParOf" srcId="{2D472228-F086-432C-A3BF-84314E3C53BC}" destId="{4EAD1E96-3E96-4C31-91A3-86A4265B5257}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{35038FE1-1A35-4769-BF7B-FE4CC3117D12}" type="presParOf" srcId="{4EAD1E96-3E96-4C31-91A3-86A4265B5257}" destId="{620A237B-CBC4-4A93-8052-70D9AC860E23}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ADA9A1D8-362E-4185-A9FB-D4DE9FC2D1D1}" type="presParOf" srcId="{620A237B-CBC4-4A93-8052-70D9AC860E23}" destId="{DFD166F7-29ED-4BF3-B6EA-EF547E469607}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{61D21068-0D2E-450D-B087-11A74F3BAD04}" type="presParOf" srcId="{620A237B-CBC4-4A93-8052-70D9AC860E23}" destId="{4DD5575A-A70E-4351-A842-5DFC53B4D3F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{28A678D0-D295-4A72-8422-F53F5DF91E08}" type="presParOf" srcId="{4EAD1E96-3E96-4C31-91A3-86A4265B5257}" destId="{3D29BD28-6A48-4057-98C0-516F95FF144C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{714AAC85-527F-4D42-8157-54580648F65B}" type="presParOf" srcId="{4EAD1E96-3E96-4C31-91A3-86A4265B5257}" destId="{E46F6D51-9606-4191-AE53-CEFA46567105}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{94A23740-FB67-4D11-96A6-29567826C99C}" type="presParOf" srcId="{752FD8F2-0106-4BE1-A357-C6BB1649916F}" destId="{4AEBC7FE-F465-48CD-8567-9C56F8F43D48}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1FCFB72B-A87C-467E-9F3C-C657FD0427F6}" type="presParOf" srcId="{4AEBC7FE-F465-48CD-8567-9C56F8F43D48}" destId="{A58F2B6C-7117-4331-AC97-CC25D7002555}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{53F787A9-0614-4E4D-AF21-52C4D865C19C}" type="presParOf" srcId="{4AEBC7FE-F465-48CD-8567-9C56F8F43D48}" destId="{9D00C112-4C2A-466A-BFAD-E1B8AAF5E839}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5D037313-2774-4AF2-9589-120595146103}" type="presParOf" srcId="{9D00C112-4C2A-466A-BFAD-E1B8AAF5E839}" destId="{8ACF7F5E-9611-404D-A4E9-A0E68E961B93}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2ABDFD10-27A5-4844-80EE-4AB0CCB92DDE}" type="presParOf" srcId="{8ACF7F5E-9611-404D-A4E9-A0E68E961B93}" destId="{6B61E405-3DC9-4012-9930-EAC68FD4D653}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9A1E1AFB-3FC7-4732-9B59-48DF6B059488}" type="presParOf" srcId="{8ACF7F5E-9611-404D-A4E9-A0E68E961B93}" destId="{04E06FC5-75F9-41F5-B96D-A2BA541EFC55}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{449CA758-FC6E-437D-A052-0BB2C0FD1350}" type="presParOf" srcId="{9D00C112-4C2A-466A-BFAD-E1B8AAF5E839}" destId="{6E121D71-C76E-4DA7-A7C7-2DA0A8513A28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C0E2D21-D66B-4927-8C79-CCFC5D2456E7}" type="presParOf" srcId="{9D00C112-4C2A-466A-BFAD-E1B8AAF5E839}" destId="{60DB18D5-41E0-4454-82E8-349932AA8B69}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3737B958-FD3C-4652-BBDC-0DA62B23E135}" type="presParOf" srcId="{1972DAFD-DC46-4BC1-B473-7BF20C46C3F5}" destId="{ED5E9274-1E16-46F7-A8BB-065C847CF9A3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7EC1751D-0FB4-4E63-B689-FB88517C0766}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{442ECB07-1145-4ABB-98B9-5777DA12DB5B}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2608AE0D-DEFB-45C8-87C1-95BF2618E9D4}" type="presParOf" srcId="{D4BF7B38-A628-4736-AE25-125628D84A0C}" destId="{A48ACDC6-2A59-4C6A-8E21-6C50819F0A94}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0666C916-26C9-4B10-9048-228DED080E60}" type="presParOf" srcId="{A48ACDC6-2A59-4C6A-8E21-6C50819F0A94}" destId="{9F5607ED-D078-4040-B7D8-1E21A2E4061C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{40191D1D-C21B-46B2-9375-18B355631EA0}" type="presParOf" srcId="{9F5607ED-D078-4040-B7D8-1E21A2E4061C}" destId="{1DF86D04-7972-4C82-85DE-84683C027A28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5597DF7A-30EB-4C7E-9E59-4EE787E4D3EE}" type="presParOf" srcId="{9F5607ED-D078-4040-B7D8-1E21A2E4061C}" destId="{CC216CED-9E3B-4875-8F0B-1A7DDFD6106B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A842C233-0C9C-4E1C-8D3C-81127929286B}" type="presParOf" srcId="{A48ACDC6-2A59-4C6A-8E21-6C50819F0A94}" destId="{875A9740-577B-4847-B022-51F46E80184F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{473B639C-896A-4601-B396-DDAD35549D80}" type="presParOf" srcId="{A48ACDC6-2A59-4C6A-8E21-6C50819F0A94}" destId="{7B0FB404-0B5B-4EEE-B05A-135B84B5ACF4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9D46C8D1-CB3C-4A89-8550-3C5E975E1010}" type="presParOf" srcId="{7C7C5016-4478-4651-BE67-947E47C80EFB}" destId="{D90A6A21-3001-4594-9285-9083770E38C6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4AC4742B-E50B-4D60-804B-E2DA88300C88}" type="presParOf" srcId="{4E93FCBF-1581-4FE4-B9C1-D749E53062D9}" destId="{DF181F74-4DAF-4308-B850-E90CCCDDE137}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2E4A79F4-3784-4DFB-AD18-3DFFB9A8495D}" type="presParOf" srcId="{8D1A72EB-9880-475E-8A28-BF2B0B401B60}" destId="{42F3D9D1-D23A-4AD6-87EB-A34C3185CE25}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BF446B2F-DE2F-4E66-BD94-34B23A3CA0B2}" type="presParOf" srcId="{2F22F17E-F4F8-4F36-A108-643DEF33F0F2}" destId="{15A93F08-0DF1-4EFD-9A16-83FBFE415466}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{39E0158E-5B54-4EBC-AE12-6EDE4D23FCF5}" type="presParOf" srcId="{15A93F08-0DF1-4EFD-9A16-83FBFE415466}" destId="{8F3D0191-C403-4316-9539-AA954BE1280A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2674970E-C771-4BD7-BA2D-682418326638}" type="presParOf" srcId="{15A93F08-0DF1-4EFD-9A16-83FBFE415466}" destId="{CB99727F-000C-4197-B410-FDB8EBB0358E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{92A64951-4B8B-432F-B048-B100B7215AA1}" type="presParOf" srcId="{CB99727F-000C-4197-B410-FDB8EBB0358E}" destId="{ED7D0EC6-527D-4837-BD05-D9BCEA185DD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BB09EFDB-11FC-414F-AAEB-9DE411021983}" type="presParOf" srcId="{ED7D0EC6-527D-4837-BD05-D9BCEA185DD6}" destId="{55D45C88-E238-4890-BC8D-B335EBEAE613}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0E030418-95E4-4780-A368-E341B17995B6}" type="presParOf" srcId="{ED7D0EC6-527D-4837-BD05-D9BCEA185DD6}" destId="{712B008C-84F8-47B6-9EA2-F32FF626FE45}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0069F13F-C433-4990-A372-696B3B00E047}" type="presParOf" srcId="{CB99727F-000C-4197-B410-FDB8EBB0358E}" destId="{390E57DD-80E6-4288-9628-10A933099B30}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{669B7626-D127-4408-BC75-447B30E8C5D8}" type="presParOf" srcId="{CB99727F-000C-4197-B410-FDB8EBB0358E}" destId="{AA6C4ECB-FD92-4339-86DD-AC230A9D801E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7F1B6785-3093-47E2-ACBF-D360B8ECBDA1}" type="presParOf" srcId="{E7E45AAC-2F7A-45E1-B818-0E5201A8E17A}" destId="{F754C96C-3974-4E20-81B8-D031D0D1C0A0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1A1CDBD0-3135-4D72-B065-B4B978BA9C3B}" type="presParOf" srcId="{D60C5391-76AA-484B-9DF9-77EE03416913}" destId="{5BEA0189-F988-4824-9629-B407130A0B5D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4B0C18EA-38DE-4E57-A7D9-49158EE85CD6}" type="presParOf" srcId="{A6910630-2203-4AD1-A741-DD430460B3D5}" destId="{2BD2E541-C93D-4B85-B070-556412EDDEED}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{104B615C-977D-40A1-89B2-1BAC0F9DCD78}" type="presParOf" srcId="{2BD2E541-C93D-4B85-B070-556412EDDEED}" destId="{61CE48A3-0777-43D7-8D1C-882307BDCBC6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -4151,8 +3619,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2790442" y="2034320"/>
-          <a:ext cx="892922" cy="227893"/>
+          <a:off x="3085172" y="2790134"/>
+          <a:ext cx="1071903" cy="273573"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4163,13 +3631,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="892922" y="0"/>
+                <a:pt x="1071903" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="892922" y="227893"/>
+                <a:pt x="1071903" y="273573"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="227893"/>
+                <a:pt x="0" y="273573"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4203,15 +3671,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{272D8880-E493-441E-8BFF-FA14A79EA53B}">
+    <dsp:sp modelId="{8F3D0191-C403-4316-9539-AA954BE1280A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3523704" y="3957802"/>
-          <a:ext cx="816745" cy="332647"/>
+          <a:off x="6164040" y="6040246"/>
+          <a:ext cx="304570" cy="570867"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4222,13 +3690,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="816745" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="816745" y="332647"/>
+                <a:pt x="0" y="570867"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="332647"/>
+                <a:pt x="304570" y="570867"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4262,15 +3730,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{CCC151FA-1A0B-4E17-9AAC-33D3664062CB}">
+    <dsp:sp modelId="{442ECB07-1145-4ABB-98B9-5777DA12DB5B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5355215" y="6347839"/>
-          <a:ext cx="739375" cy="389846"/>
+          <a:off x="9107302" y="10102087"/>
+          <a:ext cx="1681864" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4284,10 +3752,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="389846"/>
+                <a:pt x="0" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="739375" y="389846"/>
+                <a:pt x="1681864" y="145946"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1681864" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4321,15 +3792,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{8F3D0191-C403-4316-9539-AA954BE1280A}">
+    <dsp:sp modelId="{A58F2B6C-7117-4331-AC97-CC25D7002555}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6055733" y="8030123"/>
-          <a:ext cx="253714" cy="475547"/>
+          <a:off x="8378346" y="12350225"/>
+          <a:ext cx="728956" cy="479386"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4340,13 +3811,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="728956" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="475547"/>
+                <a:pt x="728956" y="479386"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="253714" y="475547"/>
+                <a:pt x="0" y="479386"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4380,15 +3851,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{442ECB07-1145-4ABB-98B9-5777DA12DB5B}">
+    <dsp:sp modelId="{2B74CA2E-4E95-4685-8B83-497A8BB8C157}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8507543" y="11413737"/>
-          <a:ext cx="1401034" cy="243154"/>
+          <a:off x="9107302" y="13958212"/>
+          <a:ext cx="716112" cy="479345"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4402,13 +3873,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="121577"/>
+                <a:pt x="0" y="479345"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1401034" y="121577"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1401034" y="243154"/>
+                <a:pt x="716112" y="479345"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4442,15 +3910,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{A58F2B6C-7117-4331-AC97-CC25D7002555}">
+    <dsp:sp modelId="{26F22A2A-8CC6-4F36-8B51-83033FA5AEF5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7900305" y="13286492"/>
-          <a:ext cx="607238" cy="399341"/>
+          <a:off x="9061582" y="12350225"/>
+          <a:ext cx="91440" cy="913001"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4461,13 +3929,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="607238" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="607238" y="399341"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="399341"/>
+                <a:pt x="45720" y="913001"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4501,15 +3966,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{2B74CA2E-4E95-4685-8B83-497A8BB8C157}">
+    <dsp:sp modelId="{C37D4FBA-EF1F-44B0-855C-3B564A6A48FD}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8507543" y="14625985"/>
-          <a:ext cx="596539" cy="399306"/>
+          <a:off x="9061582" y="11088966"/>
+          <a:ext cx="91440" cy="566273"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4520,13 +3985,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="399306"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="596539" y="399306"/>
+                <a:pt x="45720" y="566273"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4560,15 +4022,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{26F22A2A-8CC6-4F36-8B51-83033FA5AEF5}">
+    <dsp:sp modelId="{8BD74B98-4F93-477B-869F-D8A12B7BAF2F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8461823" y="13286492"/>
-          <a:ext cx="91440" cy="760553"/>
+          <a:off x="9061582" y="10102087"/>
+          <a:ext cx="91440" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4582,7 +4044,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="760553"/>
+                <a:pt x="45720" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4616,15 +4078,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{C37D4FBA-EF1F-44B0-855C-3B564A6A48FD}">
+    <dsp:sp modelId="{40D07927-79AC-4C9F-AC74-95D7DC0AFB16}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8461823" y="12235832"/>
-          <a:ext cx="91440" cy="471720"/>
+          <a:off x="7425438" y="10102087"/>
+          <a:ext cx="1681864" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4635,10 +4097,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="1681864" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="471720"/>
+                <a:pt x="1681864" y="145946"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="145946"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4672,15 +4140,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{8BD74B98-4F93-477B-869F-D8A12B7BAF2F}">
+    <dsp:sp modelId="{46DAEBF6-0A5C-43AE-B9F7-DE231E995B1E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8461823" y="11413737"/>
-          <a:ext cx="91440" cy="243154"/>
+          <a:off x="6164040" y="9115208"/>
+          <a:ext cx="2943262" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4691,10 +4159,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="243154"/>
+                <a:pt x="0" y="145946"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2943262" y="145946"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2943262" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4728,15 +4202,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{40D07927-79AC-4C9F-AC74-95D7DC0AFB16}">
+    <dsp:sp modelId="{B43B54FF-4968-4B80-9518-77BDFE55A029}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7106509" y="11413737"/>
-          <a:ext cx="1401034" cy="243154"/>
+          <a:off x="3220778" y="10102087"/>
+          <a:ext cx="2522796" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4747,16 +4221,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1401034" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1401034" y="121577"/>
+                <a:pt x="0" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="121577"/>
+                <a:pt x="2522796" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="243154"/>
+                <a:pt x="2522796" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4790,15 +4264,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{46DAEBF6-0A5C-43AE-B9F7-DE231E995B1E}">
+    <dsp:sp modelId="{481093D2-35B1-4F63-B4DA-9EFD4CF11BA2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6055733" y="10591642"/>
-          <a:ext cx="2451810" cy="243154"/>
+          <a:off x="3220778" y="10102087"/>
+          <a:ext cx="840932" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4812,13 +4286,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="121577"/>
+                <a:pt x="0" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2451810" y="121577"/>
+                <a:pt x="840932" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2451810" y="243154"/>
+                <a:pt x="840932" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4852,15 +4326,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{B43B54FF-4968-4B80-9518-77BDFE55A029}">
+    <dsp:sp modelId="{8D4D2CA9-ECD4-493D-BDF7-E85363F5DD67}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3603922" y="11413737"/>
-          <a:ext cx="2101551" cy="243154"/>
+          <a:off x="2379846" y="10102087"/>
+          <a:ext cx="840932" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4871,16 +4345,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="840932" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="121577"/>
+                <a:pt x="840932" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2101551" y="121577"/>
+                <a:pt x="0" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2101551" y="243154"/>
+                <a:pt x="0" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4914,15 +4388,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{481093D2-35B1-4F63-B4DA-9EFD4CF11BA2}">
+    <dsp:sp modelId="{B2B65F4D-9EE8-4AF4-AAA0-11BF84EAB3E7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3603922" y="11413737"/>
-          <a:ext cx="700517" cy="243154"/>
+          <a:off x="141994" y="11088966"/>
+          <a:ext cx="208495" cy="948063"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4936,13 +4410,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="121577"/>
+                <a:pt x="0" y="948063"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="700517" y="121577"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="700517" y="243154"/>
+                <a:pt x="208495" y="948063"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4976,15 +4447,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{8D4D2CA9-ECD4-493D-BDF7-E85363F5DD67}">
+    <dsp:sp modelId="{F1C115F3-7689-4248-8F15-5ADB4A5E41E4}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2903405" y="11413737"/>
-          <a:ext cx="700517" cy="243154"/>
+          <a:off x="697982" y="10102087"/>
+          <a:ext cx="2522796" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4995,16 +4466,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="700517" y="0"/>
+                <a:pt x="2522796" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="700517" y="121577"/>
+                <a:pt x="2522796" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="121577"/>
+                <a:pt x="0" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="243154"/>
+                <a:pt x="0" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5038,15 +4509,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{B2B65F4D-9EE8-4AF4-AAA0-11BF84EAB3E7}">
+    <dsp:sp modelId="{B440F889-F3DB-4D8A-8934-5680DA0624D2}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1039218" y="12235832"/>
-          <a:ext cx="173681" cy="789760"/>
+          <a:off x="3220778" y="9115208"/>
+          <a:ext cx="2943262" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5057,13 +4528,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="2943262" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="789760"/>
+                <a:pt x="2943262" y="145946"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="173681" y="789760"/>
+                <a:pt x="0" y="145946"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5097,15 +4571,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{F1C115F3-7689-4248-8F15-5ADB4A5E41E4}">
+    <dsp:sp modelId="{1ABD0C0D-2167-4E5E-9426-B401594EE7B5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1502370" y="11413737"/>
-          <a:ext cx="2101551" cy="243154"/>
+          <a:off x="6118320" y="8128329"/>
+          <a:ext cx="91440" cy="291893"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5116,16 +4590,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2101551" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2101551" y="121577"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="121577"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="243154"/>
+                <a:pt x="45720" y="291893"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5159,15 +4627,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{B440F889-F3DB-4D8A-8934-5680DA0624D2}">
+    <dsp:sp modelId="{31029E5D-38F0-4445-AD80-D53D3829D0D7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3603922" y="10591642"/>
-          <a:ext cx="2451810" cy="243154"/>
+          <a:off x="6118320" y="6040246"/>
+          <a:ext cx="91440" cy="1393097"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5178,16 +4646,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2451810" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2451810" y="121577"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="121577"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="243154"/>
+                <a:pt x="45720" y="1393097"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5221,15 +4683,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{1ABD0C0D-2167-4E5E-9426-B401594EE7B5}">
+    <dsp:sp modelId="{FBC79CCD-8433-44C4-BDA4-24CA8CE015F5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6010013" y="9769548"/>
-          <a:ext cx="91440" cy="243154"/>
+          <a:off x="5323108" y="5007637"/>
+          <a:ext cx="840932" cy="337623"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5240,10 +4702,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="243154"/>
+                <a:pt x="0" y="191676"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="840932" y="191676"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="840932" y="337623"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5277,15 +4745,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{31029E5D-38F0-4445-AD80-D53D3829D0D7}">
+    <dsp:sp modelId="{A7021507-15C2-4974-82F8-E8F19B8A460B}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6010013" y="8030123"/>
-          <a:ext cx="91440" cy="1160485"/>
+          <a:off x="4482176" y="5007637"/>
+          <a:ext cx="840932" cy="337623"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5296,10 +4764,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="840932" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1160485"/>
+                <a:pt x="840932" y="191676"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="191676"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="337623"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5333,15 +4807,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{FBC79CCD-8433-44C4-BDA4-24CA8CE015F5}">
+    <dsp:sp modelId="{1713D8DE-AF42-4A62-9BFB-FA22A93B4B22}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5355215" y="6347839"/>
-          <a:ext cx="700517" cy="1103343"/>
+          <a:off x="5003026" y="4158011"/>
+          <a:ext cx="320082" cy="154641"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5355,13 +4829,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="981766"/>
+                <a:pt x="0" y="8694"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="700517" y="981766"/>
+                <a:pt x="320082" y="8694"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="700517" y="1103343"/>
+                <a:pt x="320082" y="154641"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5395,15 +4869,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{A7021507-15C2-4974-82F8-E8F19B8A460B}">
+    <dsp:sp modelId="{5E4811F8-319E-49AA-822D-42E50E9427F1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4654698" y="6347839"/>
-          <a:ext cx="700517" cy="1103343"/>
+          <a:off x="4157076" y="2790134"/>
+          <a:ext cx="845949" cy="672891"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5414,16 +4888,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="700517" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="700517" y="981766"/>
+                <a:pt x="0" y="526944"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="981766"/>
+                <a:pt x="845949" y="526944"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1103343"/>
+                <a:pt x="845949" y="672891"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5457,15 +4931,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{1713D8DE-AF42-4A62-9BFB-FA22A93B4B22}">
+    <dsp:sp modelId="{E25C91B8-7109-4B59-AE97-D4BE4F08F148}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5309495" y="5525745"/>
-          <a:ext cx="91440" cy="243154"/>
+          <a:off x="2773861" y="1940432"/>
+          <a:ext cx="1383215" cy="154717"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5476,10 +4950,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="243154"/>
+                <a:pt x="0" y="8770"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1383215" y="8770"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1383215" y="154717"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5513,15 +4993,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{035D330F-8E26-4555-B18E-3EA31829BD15}">
+    <dsp:sp modelId="{BE6AED42-ACF5-444B-9D87-0C3700717F51}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4340449" y="3957802"/>
-          <a:ext cx="1014765" cy="989003"/>
+          <a:off x="1447787" y="1079303"/>
+          <a:ext cx="1326073" cy="166143"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5535,438 +5015,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="867425"/>
+                <a:pt x="0" y="20196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1014765" y="867425"/>
+                <a:pt x="1326073" y="20196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1014765" y="989003"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{8F2BAA84-1091-4A24-AD29-B4B8AAD7C52A}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3051729" y="6347839"/>
-          <a:ext cx="902451" cy="399370"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="902451" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="902451" y="399370"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="399370"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{F374DD8C-BD39-411D-8884-7D5D000B5412}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3908461" y="5525745"/>
-          <a:ext cx="91440" cy="243154"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="45720" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="45720" y="243154"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{B28C6FC9-0E36-4800-848D-558D3659DF83}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3954181" y="3957802"/>
-          <a:ext cx="386268" cy="989003"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="386268" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="386268" y="867425"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="867425"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="989003"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{1EADF556-E115-4146-8827-100B4A4D9461}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4294729" y="3173795"/>
-          <a:ext cx="91440" cy="205066"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="93332" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="93332" y="83488"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="83488"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="45720" y="205066"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{5E4811F8-319E-49AA-822D-42E50E9427F1}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3683364" y="2034320"/>
-          <a:ext cx="704697" cy="560535"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="438958"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="704697" y="438958"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="704697" y="560535"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{E25C91B8-7109-4B59-AE97-D4BE4F08F148}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2531112" y="1326497"/>
-          <a:ext cx="1152252" cy="128883"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="7306"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1152252" y="7306"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1152252" y="128883"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{BE6AED42-ACF5-444B-9D87-0C3700717F51}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1426460" y="609155"/>
-          <a:ext cx="1104652" cy="138401"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="16823"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1104652" y="16823"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1104652" y="138401"/>
+                <a:pt x="1326073" y="166143"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6007,8 +5062,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="847520" y="30215"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="752802" y="384318"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6045,12 +5100,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6062,14 +5117,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Logs into my account</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="847520" y="30215"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="752802" y="384318"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5A41F4D0-4E55-4096-9869-122E034906D3}">
@@ -6079,8 +5134,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1952172" y="747557"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="2078876" y="1245447"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6117,12 +5172,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6134,12 +5189,12 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Selects Return</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6150,12 +5205,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1952172" y="747557"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="2078876" y="1245447"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{370E1234-2697-4AC5-81E2-1B16F79AD861}">
@@ -6165,8 +5220,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3104424" y="1455380"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="3462091" y="2095149"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6203,12 +5258,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6220,14 +5275,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Enters reason codes &amp; submits</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3104424" y="1455380"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="3462091" y="2095149"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6E172DDF-88B6-43F7-8206-C673A88C2D06}">
@@ -6237,8 +5292,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3809122" y="2594855"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="4308041" y="3463026"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6280,12 +5335,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6297,31 +5352,31 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Notification sent to DESK</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3809122" y="2594855"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="4308041" y="3463026"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{61D04746-DD26-4AC2-9045-FD7B63B70FA6}">
+    <dsp:sp modelId="{EC47C248-2C2E-4C81-881E-A4378E48247D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3761510" y="3378862"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="4628123" y="4312652"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -6352,12 +5407,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6369,374 +5424,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
-            <a:t>Reviewed by Customer Service</a:t>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:t>Return created in spree</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3761510" y="3378862"/>
-        <a:ext cx="1157879" cy="578939"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{382D6AB1-9752-497F-A581-EC9FCE971620}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3375241" y="4946805"/>
-          <a:ext cx="1157879" cy="578939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
-            <a:t>Rejected</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3375241" y="4946805"/>
-        <a:ext cx="1157879" cy="578939"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{89C6EE15-7404-4350-A4E2-E01D99D25F07}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="3375241" y="5768899"/>
-          <a:ext cx="1157879" cy="578939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
-            <a:t>Customer Service contact customer</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3375241" y="5768899"/>
-        <a:ext cx="1157879" cy="578939"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{F0559929-F662-46DA-BF2D-295B2BE10601}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1893849" y="6457739"/>
-          <a:ext cx="1157879" cy="578939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
-            <a:t>Enhancement - Auto email sent to customer advising to contact CS</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1893849" y="6457739"/>
-        <a:ext cx="1157879" cy="578939"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{2555DBA0-9B5C-49EE-817E-B609FE182F55}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4776275" y="4946805"/>
-          <a:ext cx="1157879" cy="578939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
-            <a:t>Approved</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="4776275" y="4946805"/>
-        <a:ext cx="1157879" cy="578939"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{EC47C248-2C2E-4C81-881E-A4378E48247D}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4776275" y="5768899"/>
-          <a:ext cx="1157879" cy="578939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
-            <a:t>Return created in spree</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="4776275" y="5768899"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="4628123" y="4312652"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D4197FE3-7C68-4EA0-A381-9045A01904C0}">
@@ -6746,8 +5441,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4075758" y="7451183"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="3787191" y="5345261"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6789,12 +5484,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6806,14 +5501,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Advance shipping notice sent to 3PL</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4075758" y="7451183"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="3787191" y="5345261"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5707B9E7-4EC4-48F3-B5B7-C0F4AD71878C}">
@@ -6823,14 +5518,14 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5476793" y="7451183"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="5469055" y="5345261"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
@@ -6861,12 +5556,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6878,14 +5573,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Customer notified and supplied return address</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5476793" y="7451183"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="5469055" y="5345261"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C5AC313F-9E85-4FED-9162-78CA68DCB05A}">
@@ -6895,8 +5590,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5476793" y="9190608"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="5469055" y="7433344"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6933,12 +5628,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6950,14 +5645,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Customer ships parcel to 3PL</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5476793" y="9190608"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="5469055" y="7433344"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{092D19DD-7BA6-4B64-9E4E-B1D540429B26}">
@@ -6967,8 +5662,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5476793" y="10012702"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="5469055" y="8420223"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7007,12 +5702,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7024,14 +5719,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>3PL receive item and inspect</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5476793" y="10012702"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="5469055" y="8420223"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02C6B524-D8FC-495D-B3F3-DD87F2B607B1}">
@@ -7041,8 +5736,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3024982" y="10834797"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="2525793" y="9407102"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7081,12 +5776,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7098,14 +5793,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Return condition rejected</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3024982" y="10834797"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="2525793" y="9407102"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{603B877B-343F-4384-B81E-A743DDE75595}">
@@ -7115,8 +5810,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="923430" y="11656892"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="2997" y="10393981"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7158,12 +5853,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7175,14 +5870,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Customer Service notified of return (email)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="923430" y="11656892"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="2997" y="10393981"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CA6C17FE-417B-4355-BBDC-45A7403EE4A4}">
@@ -7192,8 +5887,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1212900" y="12736123"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="350489" y="11689537"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7230,12 +5925,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7247,14 +5942,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Customer Service contact customer</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1212900" y="12736123"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="350489" y="11689537"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D9AD0D1A-E917-4FEC-84F3-7545C3E11398}">
@@ -7264,8 +5959,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2324465" y="11656892"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="1684861" y="10393981"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7307,12 +6002,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7324,14 +6019,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Return record updated to received</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2324465" y="11656892"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="1684861" y="10393981"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8696FB2F-B74C-4284-93FD-CADDEAD018DA}">
@@ -7341,8 +6036,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3725500" y="11656892"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="3366725" y="10393981"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7384,12 +6079,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7401,14 +6096,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Notes from 3PL uploaded to notes field</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3725500" y="11656892"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="3366725" y="10393981"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6700433B-7E45-4267-AA10-ABA43A4ED20C}">
@@ -7418,8 +6113,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5126534" y="11656892"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="5048589" y="10393981"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7461,12 +6156,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7478,14 +6173,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Customer notified of return receipt</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5126534" y="11656892"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="5048589" y="10393981"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DA8F9D03-B5B3-49F9-AEEF-C2E546A8C7A4}">
@@ -7495,8 +6190,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7928603" y="10834797"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="8412317" y="9407102"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7535,12 +6230,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7552,14 +6247,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Return condition accepted</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7928603" y="10834797"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="8412317" y="9407102"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FC48BD82-19EB-4536-A8E5-9192F66DE36A}">
@@ -7569,8 +6264,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6527569" y="11656892"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="6730453" y="10393981"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7612,12 +6307,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7629,14 +6324,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Return record updated to received</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6527569" y="11656892"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="6730453" y="10393981"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A1A4778F-0BBA-4C0E-AFCB-D1779CC6ABB6}">
@@ -7646,8 +6341,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7928603" y="11656892"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="8412317" y="10393981"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7689,12 +6384,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7706,14 +6401,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Customer Service notified of return (email)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7928603" y="11656892"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="8412317" y="10393981"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0203E005-081B-4C10-ACD8-1AC7794EC88E}">
@@ -7723,8 +6418,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7928603" y="12707552"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="8412317" y="11655240"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7763,12 +6458,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7780,14 +6475,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Customer Refunded</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7928603" y="12707552"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="8412317" y="11655240"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D83CE99C-0515-4014-92FC-9219C146CCA8}">
@@ -7797,8 +6492,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7928603" y="14047045"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="8412317" y="13263227"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7837,12 +6532,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7854,14 +6549,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Return recorded update to refunded</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7928603" y="14047045"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="8412317" y="13263227"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DFD166F7-29ED-4BF3-B6EA-EF547E469607}">
@@ -7871,8 +6566,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9104083" y="14735822"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="9823415" y="14090065"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7909,12 +6604,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7926,14 +6621,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Enhancement - Auto updated after prev. enhancement</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9104083" y="14735822"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="9823415" y="14090065"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6B61E405-3DC9-4012-9930-EAC68FD4D653}">
@@ -7943,8 +6638,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6742425" y="13396363"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="6988376" y="12482119"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7981,12 +6676,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7998,14 +6693,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Enhancement - Auto refunded (PIN)</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6742425" y="13396363"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="6988376" y="12482119"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1DF86D04-7972-4C82-85DE-84683C027A28}">
@@ -8015,8 +6710,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9329638" y="11656892"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="10094181" y="10393981"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8058,12 +6753,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8075,14 +6770,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Customer notified of return receipt</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9329638" y="11656892"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="10094181" y="10393981"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{55D45C88-E238-4890-BC8D-B335EBEAE613}">
@@ -8092,8 +6787,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6309447" y="8216200"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="6468610" y="6263621"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8130,12 +6825,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8147,25 +6842,25 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
             <a:t>Enhancement - Auto send return label to customer</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6309447" y="8216200"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="6468610" y="6263621"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{CDBD0B08-2B12-4AF3-BFDC-AF29F28EC0D1}">
+    <dsp:sp modelId="{A6EB0445-7130-4121-8192-AAA6B028CDFF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6094591" y="6448216"/>
-          <a:ext cx="1157879" cy="578939"/>
+          <a:off x="1695202" y="2716216"/>
+          <a:ext cx="1389970" cy="694985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8202,12 +6897,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8219,158 +6914,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
-            <a:t>Enhancement - Auto created after prev. enhancement</a:t>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:t>Enhancement - Pop up reminding customers to review return policy</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6094591" y="6448216"/>
-        <a:ext cx="1157879" cy="578939"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{59A62163-7996-45D8-982B-C03ED1A0B491}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="2365824" y="4000979"/>
-          <a:ext cx="1157879" cy="578939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
-            <a:t>Enhancement - System auto approve on reason code</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="2365824" y="4000979"/>
-        <a:ext cx="1157879" cy="578939"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{A6EB0445-7130-4121-8192-AAA6B028CDFF}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="1632562" y="1972744"/>
-          <a:ext cx="1157879" cy="578939"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="6350" tIns="6350" rIns="6350" bIns="6350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" kern="1200"/>
-            <a:t>Enhancement - Pop up reminding customers to review return policy</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="1632562" y="1972744"/>
-        <a:ext cx="1157879" cy="578939"/>
+        <a:off x="1695202" y="2716216"/>
+        <a:ext cx="1389970" cy="694985"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
